--- a/Assets/greenberet.xlsx
+++ b/Assets/greenberet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\C64\Projects\Green Beret C16\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8466AEF7-8BE7-4DAD-8DB6-389EF3FFC72F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966FB79A-537E-4F91-9417-E7A08BA35320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21195" yWindow="150" windowWidth="19140" windowHeight="20730" xr2:uid="{C5B1AB4D-9D38-4125-AD5D-536286D47960}"/>
+    <workbookView xWindow="23265" yWindow="0" windowWidth="23115" windowHeight="20730" xr2:uid="{C5B1AB4D-9D38-4125-AD5D-536286D47960}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -551,11 +551,11 @@
   <dimension ref="A2:AX79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="M14" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="C2" sqref="C2"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="F35" sqref="F35"/>
+      <selection pane="bottomRight" activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,27 +794,27 @@
         <v>0AC8</v>
       </c>
       <c r="V5" t="str">
-        <f t="shared" ref="V5:V34" si="4">RIGHT(P5,2)</f>
+        <f t="shared" ref="V5:V28" si="4">RIGHT(P5,2)</f>
         <v>00</v>
       </c>
       <c r="W5" t="str">
-        <f t="shared" ref="W5:W34" si="5">RIGHT(Q5,2)</f>
+        <f t="shared" ref="W5:W28" si="5">RIGHT(Q5,2)</f>
         <v>C8</v>
       </c>
       <c r="X5" t="str">
-        <f t="shared" ref="X5:X34" si="6">RIGHT(R5,2)</f>
+        <f t="shared" ref="X5:X28" si="6">RIGHT(R5,2)</f>
         <v>08</v>
       </c>
       <c r="Y5" t="str">
-        <f t="shared" ref="Y5:Y34" si="7">RIGHT(S5,2)</f>
+        <f t="shared" ref="Y5:Y28" si="7">RIGHT(S5,2)</f>
         <v>C8</v>
       </c>
       <c r="Z5" t="str">
-        <f t="shared" ref="Z5:Z34" si="8">RIGHT(T5,2)</f>
+        <f t="shared" ref="Z5:Z28" si="8">RIGHT(T5,2)</f>
         <v>10</v>
       </c>
       <c r="AA5" t="str">
-        <f t="shared" ref="AA5:AA34" si="9">RIGHT(U5,2)</f>
+        <f t="shared" ref="AA5:AA28" si="9">RIGHT(U5,2)</f>
         <v>C8</v>
       </c>
       <c r="AB5" t="str">
@@ -944,27 +944,27 @@
         <v>2624</v>
       </c>
       <c r="P6" t="str">
-        <f t="shared" ref="P6:P34" si="17">DEC2HEX(J6,4)</f>
+        <f t="shared" ref="P6:P28" si="17">DEC2HEX(J6,4)</f>
         <v>0A18</v>
       </c>
       <c r="Q6" t="str">
-        <f t="shared" ref="Q6:Q34" si="18">DEC2HEX(K6,4)</f>
+        <f t="shared" ref="Q6:Q28" si="18">DEC2HEX(K6,4)</f>
         <v>0A20</v>
       </c>
       <c r="R6" t="str">
-        <f t="shared" ref="R6:R34" si="19">DEC2HEX(L6,4)</f>
+        <f t="shared" ref="R6:R28" si="19">DEC2HEX(L6,4)</f>
         <v>0A28</v>
       </c>
       <c r="S6" t="str">
-        <f t="shared" ref="S6:S34" si="20">DEC2HEX(M6,4)</f>
+        <f t="shared" ref="S6:S28" si="20">DEC2HEX(M6,4)</f>
         <v>0A30</v>
       </c>
       <c r="T6" t="str">
-        <f t="shared" ref="T6:T34" si="21">DEC2HEX(N6,4)</f>
+        <f t="shared" ref="T6:T28" si="21">DEC2HEX(N6,4)</f>
         <v>0A38</v>
       </c>
       <c r="U6" t="str">
-        <f t="shared" ref="U6:U34" si="22">DEC2HEX(O6,4)</f>
+        <f t="shared" ref="U6:U28" si="22">DEC2HEX(O6,4)</f>
         <v>0A40</v>
       </c>
       <c r="V6" t="str">
@@ -992,27 +992,27 @@
         <v>40</v>
       </c>
       <c r="AB6" t="str">
-        <f t="shared" ref="AB6:AB34" si="23">LEFT(P6,2)</f>
+        <f t="shared" ref="AB6:AB28" si="23">LEFT(P6,2)</f>
         <v>0A</v>
       </c>
       <c r="AC6" t="str">
-        <f t="shared" ref="AC6:AC34" si="24">LEFT(Q6,2)</f>
+        <f t="shared" ref="AC6:AC28" si="24">LEFT(Q6,2)</f>
         <v>0A</v>
       </c>
       <c r="AD6" t="str">
-        <f t="shared" ref="AD6:AD34" si="25">LEFT(R6,2)</f>
+        <f t="shared" ref="AD6:AD28" si="25">LEFT(R6,2)</f>
         <v>0A</v>
       </c>
       <c r="AE6" t="str">
-        <f t="shared" ref="AE6:AE34" si="26">LEFT(S6,2)</f>
+        <f t="shared" ref="AE6:AE28" si="26">LEFT(S6,2)</f>
         <v>0A</v>
       </c>
       <c r="AF6" t="str">
-        <f t="shared" ref="AF6:AF34" si="27">LEFT(T6,2)</f>
+        <f t="shared" ref="AF6:AF28" si="27">LEFT(T6,2)</f>
         <v>0A</v>
       </c>
       <c r="AG6" t="str">
-        <f t="shared" ref="AG6:AG34" si="28">LEFT(U6,2)</f>
+        <f t="shared" ref="AG6:AG28" si="28">LEFT(U6,2)</f>
         <v>0A</v>
       </c>
       <c r="AK6" t="str">
@@ -3978,27 +3978,27 @@
         <v>60</v>
       </c>
       <c r="J24">
-        <f>(C24*8)+2560</f>
+        <f t="shared" ref="J24:O28" si="45">(C24*8)+2560</f>
         <v>3024</v>
       </c>
       <c r="K24">
-        <f>(D24*8)+2560</f>
+        <f t="shared" si="45"/>
         <v>2760</v>
       </c>
       <c r="L24">
-        <f>(E24*8)+2560</f>
+        <f t="shared" si="45"/>
         <v>3032</v>
       </c>
       <c r="M24">
-        <f>(F24*8)+2560</f>
+        <f t="shared" si="45"/>
         <v>2760</v>
       </c>
       <c r="N24">
-        <f>(G24*8)+2560</f>
+        <f t="shared" si="45"/>
         <v>3048</v>
       </c>
       <c r="O24">
-        <f>(H24*8)+2560</f>
+        <f t="shared" si="45"/>
         <v>3040</v>
       </c>
       <c r="P24" t="str">
@@ -4152,27 +4152,27 @@
         <v>45</v>
       </c>
       <c r="J25">
-        <f>(C25*8)+2560</f>
+        <f t="shared" si="45"/>
         <v>2760</v>
       </c>
       <c r="K25">
-        <f>(D25*8)+2560</f>
+        <f t="shared" si="45"/>
         <v>2904</v>
       </c>
       <c r="L25">
-        <f>(E25*8)+2560</f>
+        <f t="shared" si="45"/>
         <v>3072</v>
       </c>
       <c r="M25">
-        <f>(F25*8)+2560</f>
+        <f t="shared" si="45"/>
         <v>3080</v>
       </c>
       <c r="N25">
-        <f>(G25*8)+2560</f>
+        <f t="shared" si="45"/>
         <v>2760</v>
       </c>
       <c r="O25">
-        <f>(H25*8)+2560</f>
+        <f t="shared" si="45"/>
         <v>2920</v>
       </c>
       <c r="P25" t="str">
@@ -4326,27 +4326,27 @@
         <v>50</v>
       </c>
       <c r="J26">
-        <f>(C26*8)+2560</f>
+        <f t="shared" si="45"/>
         <v>2936</v>
       </c>
       <c r="K26">
-        <f>(D26*8)+2560</f>
+        <f t="shared" si="45"/>
         <v>2928</v>
       </c>
       <c r="L26">
-        <f>(E26*8)+2560</f>
+        <f t="shared" si="45"/>
         <v>3064</v>
       </c>
       <c r="M26">
-        <f>(F26*8)+2560</f>
+        <f t="shared" si="45"/>
         <v>3056</v>
       </c>
       <c r="N26">
-        <f>(G26*8)+2560</f>
+        <f t="shared" si="45"/>
         <v>2968</v>
       </c>
       <c r="O26">
-        <f>(H26*8)+2560</f>
+        <f t="shared" si="45"/>
         <v>2960</v>
       </c>
       <c r="P26" t="str">
@@ -4500,27 +4500,27 @@
         <v>56</v>
       </c>
       <c r="J27">
-        <f>(C27*8)+2560</f>
+        <f t="shared" si="45"/>
         <v>2984</v>
       </c>
       <c r="K27">
-        <f>(D27*8)+2560</f>
+        <f t="shared" si="45"/>
         <v>2976</v>
       </c>
       <c r="L27">
-        <f>(E27*8)+2560</f>
+        <f t="shared" si="45"/>
         <v>3088</v>
       </c>
       <c r="M27">
-        <f>(F27*8)+2560</f>
+        <f t="shared" si="45"/>
         <v>3096</v>
       </c>
       <c r="N27">
-        <f>(G27*8)+2560</f>
+        <f t="shared" si="45"/>
         <v>3016</v>
       </c>
       <c r="O27">
-        <f>(H27*8)+2560</f>
+        <f t="shared" si="45"/>
         <v>3008</v>
       </c>
       <c r="P27" t="str">
@@ -4674,27 +4674,27 @@
         <v>60</v>
       </c>
       <c r="J28">
-        <f>(C28*8)+2560</f>
+        <f t="shared" si="45"/>
         <v>3024</v>
       </c>
       <c r="K28">
-        <f>(D28*8)+2560</f>
+        <f t="shared" si="45"/>
         <v>2760</v>
       </c>
       <c r="L28">
-        <f>(E28*8)+2560</f>
+        <f t="shared" si="45"/>
         <v>3032</v>
       </c>
       <c r="M28">
-        <f>(F28*8)+2560</f>
+        <f t="shared" si="45"/>
         <v>2760</v>
       </c>
       <c r="N28">
-        <f>(G28*8)+2560</f>
+        <f t="shared" si="45"/>
         <v>3048</v>
       </c>
       <c r="O28">
-        <f>(H28*8)+2560</f>
+        <f t="shared" si="45"/>
         <v>3040</v>
       </c>
       <c r="P28" t="str">
@@ -4848,99 +4848,99 @@
         <v>18</v>
       </c>
       <c r="J29">
-        <f t="shared" ref="J29:J39" si="45">(C29*8)+2560</f>
+        <f t="shared" ref="J29:J39" si="46">(C29*8)+2560</f>
         <v>2760</v>
       </c>
       <c r="K29">
-        <f t="shared" ref="K29:K39" si="46">(D29*8)+2560</f>
+        <f t="shared" ref="K29:K39" si="47">(D29*8)+2560</f>
         <v>2680</v>
       </c>
       <c r="L29">
-        <f t="shared" ref="L29:L39" si="47">(E29*8)+2560</f>
+        <f t="shared" ref="L29:L39" si="48">(E29*8)+2560</f>
         <v>2760</v>
       </c>
       <c r="M29">
-        <f t="shared" ref="M29:M39" si="48">(F29*8)+2560</f>
+        <f t="shared" ref="M29:M39" si="49">(F29*8)+2560</f>
         <v>2688</v>
       </c>
       <c r="N29">
-        <f t="shared" ref="N29:N39" si="49">(G29*8)+2560</f>
+        <f t="shared" ref="N29:N39" si="50">(G29*8)+2560</f>
         <v>2696</v>
       </c>
       <c r="O29">
-        <f t="shared" ref="O29:O39" si="50">(H29*8)+2560</f>
+        <f t="shared" ref="O29:O39" si="51">(H29*8)+2560</f>
         <v>2704</v>
       </c>
       <c r="P29" t="str">
-        <f t="shared" ref="P29:P39" si="51">DEC2HEX(J29,4)</f>
+        <f t="shared" ref="P29:P39" si="52">DEC2HEX(J29,4)</f>
         <v>0AC8</v>
       </c>
       <c r="Q29" t="str">
-        <f t="shared" ref="Q29:Q39" si="52">DEC2HEX(K29,4)</f>
+        <f t="shared" ref="Q29:Q39" si="53">DEC2HEX(K29,4)</f>
         <v>0A78</v>
       </c>
       <c r="R29" t="str">
-        <f t="shared" ref="R29:R39" si="53">DEC2HEX(L29,4)</f>
+        <f t="shared" ref="R29:R39" si="54">DEC2HEX(L29,4)</f>
         <v>0AC8</v>
       </c>
       <c r="S29" t="str">
-        <f t="shared" ref="S29:S39" si="54">DEC2HEX(M29,4)</f>
+        <f t="shared" ref="S29:S39" si="55">DEC2HEX(M29,4)</f>
         <v>0A80</v>
       </c>
       <c r="T29" t="str">
-        <f t="shared" ref="T29:T39" si="55">DEC2HEX(N29,4)</f>
+        <f t="shared" ref="T29:T39" si="56">DEC2HEX(N29,4)</f>
         <v>0A88</v>
       </c>
       <c r="U29" t="str">
-        <f t="shared" ref="U29:U39" si="56">DEC2HEX(O29,4)</f>
+        <f t="shared" ref="U29:U39" si="57">DEC2HEX(O29,4)</f>
         <v>0A90</v>
       </c>
       <c r="V29" t="str">
-        <f t="shared" ref="V29:V39" si="57">RIGHT(P29,2)</f>
+        <f t="shared" ref="V29:V39" si="58">RIGHT(P29,2)</f>
         <v>C8</v>
       </c>
       <c r="W29" t="str">
-        <f t="shared" ref="W29:W39" si="58">RIGHT(Q29,2)</f>
+        <f t="shared" ref="W29:W39" si="59">RIGHT(Q29,2)</f>
         <v>78</v>
       </c>
       <c r="X29" t="str">
-        <f t="shared" ref="X29:X39" si="59">RIGHT(R29,2)</f>
+        <f t="shared" ref="X29:X39" si="60">RIGHT(R29,2)</f>
         <v>C8</v>
       </c>
       <c r="Y29" t="str">
-        <f t="shared" ref="Y29:Y39" si="60">RIGHT(S29,2)</f>
+        <f t="shared" ref="Y29:Y39" si="61">RIGHT(S29,2)</f>
         <v>80</v>
       </c>
       <c r="Z29" t="str">
-        <f t="shared" ref="Z29:Z39" si="61">RIGHT(T29,2)</f>
+        <f t="shared" ref="Z29:Z39" si="62">RIGHT(T29,2)</f>
         <v>88</v>
       </c>
       <c r="AA29" t="str">
-        <f t="shared" ref="AA29:AA39" si="62">RIGHT(U29,2)</f>
+        <f t="shared" ref="AA29:AA39" si="63">RIGHT(U29,2)</f>
         <v>90</v>
       </c>
       <c r="AB29" t="str">
-        <f t="shared" ref="AB29:AB39" si="63">LEFT(P29,2)</f>
+        <f t="shared" ref="AB29:AB39" si="64">LEFT(P29,2)</f>
         <v>0A</v>
       </c>
       <c r="AC29" t="str">
-        <f t="shared" ref="AC29:AC39" si="64">LEFT(Q29,2)</f>
+        <f t="shared" ref="AC29:AC39" si="65">LEFT(Q29,2)</f>
         <v>0A</v>
       </c>
       <c r="AD29" t="str">
-        <f t="shared" ref="AD29:AD39" si="65">LEFT(R29,2)</f>
+        <f t="shared" ref="AD29:AD39" si="66">LEFT(R29,2)</f>
         <v>0A</v>
       </c>
       <c r="AE29" t="str">
-        <f t="shared" ref="AE29:AE39" si="66">LEFT(S29,2)</f>
+        <f t="shared" ref="AE29:AE39" si="67">LEFT(S29,2)</f>
         <v>0A</v>
       </c>
       <c r="AF29" t="str">
-        <f t="shared" ref="AF29:AF39" si="67">LEFT(T29,2)</f>
+        <f t="shared" ref="AF29:AF39" si="68">LEFT(T29,2)</f>
         <v>0A</v>
       </c>
       <c r="AG29" t="str">
-        <f t="shared" ref="AG29:AG39" si="68">LEFT(U29,2)</f>
+        <f t="shared" ref="AG29:AG39" si="69">LEFT(U29,2)</f>
         <v>0A</v>
       </c>
       <c r="AK29" t="str">
@@ -5007,99 +5007,99 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="J30">
-        <f t="shared" si="45"/>
-        <v>2560</v>
-      </c>
-      <c r="K30">
         <f t="shared" si="46"/>
         <v>2560</v>
       </c>
-      <c r="L30">
+      <c r="K30">
         <f t="shared" si="47"/>
         <v>2560</v>
       </c>
-      <c r="M30">
+      <c r="L30">
         <f t="shared" si="48"/>
         <v>2560</v>
       </c>
-      <c r="N30">
+      <c r="M30">
         <f t="shared" si="49"/>
         <v>2560</v>
       </c>
-      <c r="O30">
+      <c r="N30">
         <f t="shared" si="50"/>
         <v>2560</v>
       </c>
+      <c r="O30">
+        <f t="shared" si="51"/>
+        <v>2560</v>
+      </c>
       <c r="P30" t="str">
-        <f t="shared" si="51"/>
-        <v>0A00</v>
-      </c>
-      <c r="Q30" t="str">
         <f t="shared" si="52"/>
         <v>0A00</v>
       </c>
-      <c r="R30" t="str">
+      <c r="Q30" t="str">
         <f t="shared" si="53"/>
         <v>0A00</v>
       </c>
-      <c r="S30" t="str">
+      <c r="R30" t="str">
         <f t="shared" si="54"/>
         <v>0A00</v>
       </c>
-      <c r="T30" t="str">
+      <c r="S30" t="str">
         <f t="shared" si="55"/>
         <v>0A00</v>
       </c>
-      <c r="U30" t="str">
+      <c r="T30" t="str">
         <f t="shared" si="56"/>
         <v>0A00</v>
       </c>
+      <c r="U30" t="str">
+        <f t="shared" si="57"/>
+        <v>0A00</v>
+      </c>
       <c r="V30" t="str">
-        <f t="shared" si="57"/>
-        <v>00</v>
-      </c>
-      <c r="W30" t="str">
         <f t="shared" si="58"/>
         <v>00</v>
       </c>
-      <c r="X30" t="str">
+      <c r="W30" t="str">
         <f t="shared" si="59"/>
         <v>00</v>
       </c>
-      <c r="Y30" t="str">
+      <c r="X30" t="str">
         <f t="shared" si="60"/>
         <v>00</v>
       </c>
-      <c r="Z30" t="str">
+      <c r="Y30" t="str">
         <f t="shared" si="61"/>
         <v>00</v>
       </c>
-      <c r="AA30" t="str">
+      <c r="Z30" t="str">
         <f t="shared" si="62"/>
         <v>00</v>
       </c>
+      <c r="AA30" t="str">
+        <f t="shared" si="63"/>
+        <v>00</v>
+      </c>
       <c r="AB30" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>0A</v>
       </c>
       <c r="AC30" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0A</v>
       </c>
       <c r="AD30" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0A</v>
       </c>
       <c r="AE30" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>0A</v>
       </c>
       <c r="AF30" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0A</v>
       </c>
       <c r="AG30" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0A</v>
       </c>
       <c r="AK30" t="str">
@@ -5175,99 +5175,99 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="J31">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>3184</v>
       </c>
       <c r="K31">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>3176</v>
       </c>
       <c r="L31">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>3168</v>
       </c>
       <c r="M31">
-        <f t="shared" si="48"/>
-        <v>2560</v>
-      </c>
-      <c r="N31">
         <f t="shared" si="49"/>
         <v>2560</v>
       </c>
-      <c r="O31">
+      <c r="N31">
         <f t="shared" si="50"/>
         <v>2560</v>
       </c>
+      <c r="O31">
+        <f t="shared" si="51"/>
+        <v>2560</v>
+      </c>
       <c r="P31" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0C70</v>
       </c>
       <c r="Q31" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0C68</v>
       </c>
       <c r="R31" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>0C60</v>
       </c>
       <c r="S31" t="str">
-        <f t="shared" si="54"/>
-        <v>0A00</v>
-      </c>
-      <c r="T31" t="str">
         <f t="shared" si="55"/>
         <v>0A00</v>
       </c>
-      <c r="U31" t="str">
+      <c r="T31" t="str">
         <f t="shared" si="56"/>
         <v>0A00</v>
       </c>
+      <c r="U31" t="str">
+        <f t="shared" si="57"/>
+        <v>0A00</v>
+      </c>
       <c r="V31" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>70</v>
       </c>
       <c r="W31" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>68</v>
       </c>
       <c r="X31" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>60</v>
       </c>
       <c r="Y31" t="str">
-        <f t="shared" si="60"/>
-        <v>00</v>
-      </c>
-      <c r="Z31" t="str">
         <f t="shared" si="61"/>
         <v>00</v>
       </c>
-      <c r="AA31" t="str">
+      <c r="Z31" t="str">
         <f t="shared" si="62"/>
         <v>00</v>
       </c>
+      <c r="AA31" t="str">
+        <f t="shared" si="63"/>
+        <v>00</v>
+      </c>
       <c r="AB31" t="str">
-        <f t="shared" si="63"/>
-        <v>0C</v>
-      </c>
-      <c r="AC31" t="str">
         <f t="shared" si="64"/>
         <v>0C</v>
       </c>
-      <c r="AD31" t="str">
+      <c r="AC31" t="str">
         <f t="shared" si="65"/>
         <v>0C</v>
       </c>
+      <c r="AD31" t="str">
+        <f t="shared" si="66"/>
+        <v>0C</v>
+      </c>
       <c r="AE31" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>0A</v>
       </c>
       <c r="AF31" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0A</v>
       </c>
       <c r="AG31" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0A</v>
       </c>
       <c r="AK31" t="str">
@@ -5334,99 +5334,99 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="J32">
-        <f t="shared" si="45"/>
-        <v>2560</v>
-      </c>
-      <c r="K32">
         <f t="shared" si="46"/>
         <v>2560</v>
       </c>
-      <c r="L32">
+      <c r="K32">
         <f t="shared" si="47"/>
         <v>2560</v>
       </c>
-      <c r="M32">
+      <c r="L32">
         <f t="shared" si="48"/>
         <v>2560</v>
       </c>
-      <c r="N32">
+      <c r="M32">
         <f t="shared" si="49"/>
         <v>2560</v>
       </c>
-      <c r="O32">
+      <c r="N32">
         <f t="shared" si="50"/>
         <v>2560</v>
       </c>
+      <c r="O32">
+        <f t="shared" si="51"/>
+        <v>2560</v>
+      </c>
       <c r="P32" t="str">
-        <f t="shared" si="51"/>
-        <v>0A00</v>
-      </c>
-      <c r="Q32" t="str">
         <f t="shared" si="52"/>
         <v>0A00</v>
       </c>
-      <c r="R32" t="str">
+      <c r="Q32" t="str">
         <f t="shared" si="53"/>
         <v>0A00</v>
       </c>
-      <c r="S32" t="str">
+      <c r="R32" t="str">
         <f t="shared" si="54"/>
         <v>0A00</v>
       </c>
-      <c r="T32" t="str">
+      <c r="S32" t="str">
         <f t="shared" si="55"/>
         <v>0A00</v>
       </c>
-      <c r="U32" t="str">
+      <c r="T32" t="str">
         <f t="shared" si="56"/>
         <v>0A00</v>
       </c>
+      <c r="U32" t="str">
+        <f t="shared" si="57"/>
+        <v>0A00</v>
+      </c>
       <c r="V32" t="str">
-        <f t="shared" si="57"/>
-        <v>00</v>
-      </c>
-      <c r="W32" t="str">
         <f t="shared" si="58"/>
         <v>00</v>
       </c>
-      <c r="X32" t="str">
+      <c r="W32" t="str">
         <f t="shared" si="59"/>
         <v>00</v>
       </c>
-      <c r="Y32" t="str">
+      <c r="X32" t="str">
         <f t="shared" si="60"/>
         <v>00</v>
       </c>
-      <c r="Z32" t="str">
+      <c r="Y32" t="str">
         <f t="shared" si="61"/>
         <v>00</v>
       </c>
-      <c r="AA32" t="str">
+      <c r="Z32" t="str">
         <f t="shared" si="62"/>
         <v>00</v>
       </c>
+      <c r="AA32" t="str">
+        <f t="shared" si="63"/>
+        <v>00</v>
+      </c>
       <c r="AB32" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>0A</v>
       </c>
       <c r="AC32" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0A</v>
       </c>
       <c r="AD32" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0A</v>
       </c>
       <c r="AE32" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>0A</v>
       </c>
       <c r="AF32" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0A</v>
       </c>
       <c r="AG32" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0A</v>
       </c>
       <c r="AK32" t="str">
@@ -5502,99 +5502,99 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="J33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>3200</v>
       </c>
       <c r="K33">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>3192</v>
       </c>
       <c r="L33">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>3168</v>
       </c>
       <c r="M33">
-        <f t="shared" si="48"/>
-        <v>2560</v>
-      </c>
-      <c r="N33">
         <f t="shared" si="49"/>
         <v>2560</v>
       </c>
-      <c r="O33">
+      <c r="N33">
         <f t="shared" si="50"/>
         <v>2560</v>
       </c>
+      <c r="O33">
+        <f t="shared" si="51"/>
+        <v>2560</v>
+      </c>
       <c r="P33" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0C80</v>
       </c>
       <c r="Q33" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0C78</v>
       </c>
       <c r="R33" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>0C60</v>
       </c>
       <c r="S33" t="str">
-        <f t="shared" si="54"/>
-        <v>0A00</v>
-      </c>
-      <c r="T33" t="str">
         <f t="shared" si="55"/>
         <v>0A00</v>
       </c>
-      <c r="U33" t="str">
+      <c r="T33" t="str">
         <f t="shared" si="56"/>
         <v>0A00</v>
       </c>
+      <c r="U33" t="str">
+        <f t="shared" si="57"/>
+        <v>0A00</v>
+      </c>
       <c r="V33" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>80</v>
       </c>
       <c r="W33" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>78</v>
       </c>
       <c r="X33" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>60</v>
       </c>
       <c r="Y33" t="str">
-        <f t="shared" si="60"/>
-        <v>00</v>
-      </c>
-      <c r="Z33" t="str">
         <f t="shared" si="61"/>
         <v>00</v>
       </c>
-      <c r="AA33" t="str">
+      <c r="Z33" t="str">
         <f t="shared" si="62"/>
         <v>00</v>
       </c>
+      <c r="AA33" t="str">
+        <f t="shared" si="63"/>
+        <v>00</v>
+      </c>
       <c r="AB33" t="str">
-        <f t="shared" si="63"/>
-        <v>0C</v>
-      </c>
-      <c r="AC33" t="str">
         <f t="shared" si="64"/>
         <v>0C</v>
       </c>
-      <c r="AD33" t="str">
+      <c r="AC33" t="str">
         <f t="shared" si="65"/>
         <v>0C</v>
       </c>
+      <c r="AD33" t="str">
+        <f t="shared" si="66"/>
+        <v>0C</v>
+      </c>
       <c r="AE33" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>0A</v>
       </c>
       <c r="AF33" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0A</v>
       </c>
       <c r="AG33" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0A</v>
       </c>
       <c r="AK33" t="str">
@@ -5661,99 +5661,99 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="J34">
-        <f t="shared" si="45"/>
-        <v>2560</v>
-      </c>
-      <c r="K34">
         <f t="shared" si="46"/>
         <v>2560</v>
       </c>
-      <c r="L34">
+      <c r="K34">
         <f t="shared" si="47"/>
         <v>2560</v>
       </c>
-      <c r="M34">
+      <c r="L34">
         <f t="shared" si="48"/>
         <v>2560</v>
       </c>
-      <c r="N34">
+      <c r="M34">
         <f t="shared" si="49"/>
         <v>2560</v>
       </c>
-      <c r="O34">
+      <c r="N34">
         <f t="shared" si="50"/>
         <v>2560</v>
       </c>
+      <c r="O34">
+        <f t="shared" si="51"/>
+        <v>2560</v>
+      </c>
       <c r="P34" t="str">
-        <f t="shared" si="51"/>
-        <v>0A00</v>
-      </c>
-      <c r="Q34" t="str">
         <f t="shared" si="52"/>
         <v>0A00</v>
       </c>
-      <c r="R34" t="str">
+      <c r="Q34" t="str">
         <f t="shared" si="53"/>
         <v>0A00</v>
       </c>
-      <c r="S34" t="str">
+      <c r="R34" t="str">
         <f t="shared" si="54"/>
         <v>0A00</v>
       </c>
-      <c r="T34" t="str">
+      <c r="S34" t="str">
         <f t="shared" si="55"/>
         <v>0A00</v>
       </c>
-      <c r="U34" t="str">
+      <c r="T34" t="str">
         <f t="shared" si="56"/>
         <v>0A00</v>
       </c>
+      <c r="U34" t="str">
+        <f t="shared" si="57"/>
+        <v>0A00</v>
+      </c>
       <c r="V34" t="str">
-        <f t="shared" si="57"/>
-        <v>00</v>
-      </c>
-      <c r="W34" t="str">
         <f t="shared" si="58"/>
         <v>00</v>
       </c>
-      <c r="X34" t="str">
+      <c r="W34" t="str">
         <f t="shared" si="59"/>
         <v>00</v>
       </c>
-      <c r="Y34" t="str">
+      <c r="X34" t="str">
         <f t="shared" si="60"/>
         <v>00</v>
       </c>
-      <c r="Z34" t="str">
+      <c r="Y34" t="str">
         <f t="shared" si="61"/>
         <v>00</v>
       </c>
-      <c r="AA34" t="str">
+      <c r="Z34" t="str">
         <f t="shared" si="62"/>
         <v>00</v>
       </c>
+      <c r="AA34" t="str">
+        <f t="shared" si="63"/>
+        <v>00</v>
+      </c>
       <c r="AB34" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>0A</v>
       </c>
       <c r="AC34" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0A</v>
       </c>
       <c r="AD34" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0A</v>
       </c>
       <c r="AE34" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>0A</v>
       </c>
       <c r="AF34" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0A</v>
       </c>
       <c r="AG34" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0A</v>
       </c>
       <c r="AK34" t="str">
@@ -5829,151 +5829,151 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="J35">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>3216</v>
       </c>
       <c r="K35">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>3208</v>
       </c>
       <c r="L35">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>3168</v>
       </c>
       <c r="M35">
-        <f t="shared" si="48"/>
-        <v>2560</v>
-      </c>
-      <c r="N35">
         <f t="shared" si="49"/>
         <v>2560</v>
       </c>
-      <c r="O35">
+      <c r="N35">
         <f t="shared" si="50"/>
         <v>2560</v>
       </c>
+      <c r="O35">
+        <f t="shared" si="51"/>
+        <v>2560</v>
+      </c>
       <c r="P35" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0C90</v>
       </c>
       <c r="Q35" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0C88</v>
       </c>
       <c r="R35" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>0C60</v>
       </c>
       <c r="S35" t="str">
-        <f t="shared" si="54"/>
-        <v>0A00</v>
-      </c>
-      <c r="T35" t="str">
         <f t="shared" si="55"/>
         <v>0A00</v>
       </c>
-      <c r="U35" t="str">
+      <c r="T35" t="str">
         <f t="shared" si="56"/>
         <v>0A00</v>
       </c>
+      <c r="U35" t="str">
+        <f t="shared" si="57"/>
+        <v>0A00</v>
+      </c>
       <c r="V35" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>90</v>
       </c>
       <c r="W35" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>88</v>
       </c>
       <c r="X35" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>60</v>
       </c>
       <c r="Y35" t="str">
-        <f t="shared" si="60"/>
-        <v>00</v>
-      </c>
-      <c r="Z35" t="str">
         <f t="shared" si="61"/>
         <v>00</v>
       </c>
-      <c r="AA35" t="str">
+      <c r="Z35" t="str">
         <f t="shared" si="62"/>
         <v>00</v>
       </c>
+      <c r="AA35" t="str">
+        <f t="shared" si="63"/>
+        <v>00</v>
+      </c>
       <c r="AB35" t="str">
-        <f t="shared" si="63"/>
-        <v>0C</v>
-      </c>
-      <c r="AC35" t="str">
         <f t="shared" si="64"/>
         <v>0C</v>
       </c>
-      <c r="AD35" t="str">
+      <c r="AC35" t="str">
         <f t="shared" si="65"/>
         <v>0C</v>
       </c>
+      <c r="AD35" t="str">
+        <f t="shared" si="66"/>
+        <v>0C</v>
+      </c>
       <c r="AE35" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>0A</v>
       </c>
       <c r="AF35" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0A</v>
       </c>
       <c r="AG35" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0A</v>
       </c>
       <c r="AK35" t="str">
-        <f t="shared" ref="AK35:AK45" si="69">AK34&amp;", $"&amp;V35</f>
+        <f t="shared" ref="AK35:AK45" si="70">AK34&amp;", $"&amp;V35</f>
         <v>TopLeftCharsLSB: .byte $00, $18, $48, $C8, $00, $18, $48, $C8, $C8, $00, $28, $00, $28, $00, $28, $00, $C8, $78, $A8, $D0, $C8, $78, $A8, $D0, $C8, $00, $70, $00, $80, $00, $90</v>
       </c>
       <c r="AL35" t="str">
-        <f t="shared" ref="AL35:AL45" si="70">AL34&amp;", $"&amp;W35</f>
+        <f t="shared" ref="AL35:AL45" si="71">AL34&amp;", $"&amp;W35</f>
         <v>TopRightCharsLSB: .byte $C8, $20, $50, $78, $C8, $20, $50, $78, $78, $00, $30, $00, $40, $00, $50, $00, $58, $70, $A0, $C8, $58, $70, $A0, $C8, $78, $00, $68, $00, $78, $00, $88</v>
       </c>
       <c r="AM35" t="str">
-        <f t="shared" ref="AM35:AM45" si="71">AM34&amp;", $"&amp;X35</f>
+        <f t="shared" ref="AM35:AM45" si="72">AM34&amp;", $"&amp;X35</f>
         <v>MiddleLeftCharsLSB: .byte $08, $28, $58, $C8, $B0, $98, $98, $C0, $C8, $00, $38, $00, $48, $00, $58, $00, $C8, $88, $B8, $D8, $00, $F8, $10, $D8, $C8, $00, $60, $00, $60, $00, $60</v>
       </c>
       <c r="AN35" t="str">
-        <f t="shared" ref="AN35:AN45" si="72">AN34&amp;", $"&amp;Y35</f>
+        <f t="shared" ref="AN35:AN45" si="73">AN34&amp;", $"&amp;Y35</f>
         <v>MiddleRightCharsLSB: .byte $C8, $30, $60, $80, $A8, $A0, $A0, $B8, $80, $00, $00, $00, $00, $00, $00, $00, $60, $80, $B0, $C8, $08, $F0, $18, $C8, $80, $00, $00, $00, $00, $00, $00</v>
       </c>
       <c r="AO35" t="str">
-        <f t="shared" ref="AO35:AO45" si="73">AO34&amp;", $"&amp;Z35</f>
+        <f t="shared" ref="AO35:AO45" si="74">AO34&amp;", $"&amp;Z35</f>
         <v>BottomLeftCharsLSB: .byte $10, $38, $68, $88, $10, $38, $68, $88, $88, $00, $00, $00, $00, $00, $00, $00, $C8, $98, $C8, $E8, $C8, $98, $C8, $E8, $88, $00, $00, $00, $00, $00, $00</v>
       </c>
       <c r="AP35" t="str">
-        <f t="shared" ref="AP35:AP45" si="74">AP34&amp;", $"&amp;AA35</f>
+        <f t="shared" ref="AP35:AP45" si="75">AP34&amp;", $"&amp;AA35</f>
         <v>BottomRightCharsLSB: .byte $C8, $40, $70, $90, $C8, $40, $70, $90, $90, $00, $00, $00, $00, $00, $00, $00, $68, $90, $C0, $E0, $68, $90, $C0, $E0, $90, $00, $00, $00, $00, $00, $00</v>
       </c>
       <c r="AQ35" t="str">
-        <f t="shared" ref="AQ35:AQ45" si="75">AQ34&amp;", $"&amp;AB35</f>
+        <f t="shared" ref="AQ35:AQ45" si="76">AQ34&amp;", $"&amp;AB35</f>
         <v>TopLeftCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A, $0A, $0B, $0B, $0B, $0A, $0B, $0B, $0B, $0A, $0A, $0C, $0A, $0C, $0A, $0C</v>
       </c>
       <c r="AR35" t="str">
-        <f t="shared" ref="AR35:AR45" si="76">AR34&amp;", $"&amp;AC35</f>
+        <f t="shared" ref="AR35:AR45" si="77">AR34&amp;", $"&amp;AC35</f>
         <v>TopRightCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A, $0B, $0B, $0B, $0A, $0B, $0B, $0B, $0A, $0A, $0A, $0C, $0A, $0C, $0A, $0C</v>
       </c>
       <c r="AS35" t="str">
-        <f t="shared" ref="AS35:AS45" si="77">AS34&amp;", $"&amp;AD35</f>
+        <f t="shared" ref="AS35:AS45" si="78">AS34&amp;", $"&amp;AD35</f>
         <v>MiddleLeftCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A, $0A, $0B, $0B, $0B, $0C, $0B, $0C, $0B, $0A, $0A, $0C, $0A, $0C, $0A, $0C</v>
       </c>
       <c r="AT35" t="str">
-        <f t="shared" ref="AT35:AT45" si="78">AT34&amp;", $"&amp;AE35</f>
+        <f t="shared" ref="AT35:AT45" si="79">AT34&amp;", $"&amp;AE35</f>
         <v>MiddleRightCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0B, $0B, $0B, $0A, $0C, $0B, $0C, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A</v>
       </c>
       <c r="AU35" t="str">
-        <f t="shared" ref="AU35:AU45" si="79">AU34&amp;", $"&amp;AF35</f>
+        <f t="shared" ref="AU35:AU45" si="80">AU34&amp;", $"&amp;AF35</f>
         <v>BottomLeftCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0B, $0B, $0B, $0A, $0B, $0B, $0B, $0A, $0A, $0A, $0A, $0A, $0A, $0A</v>
       </c>
       <c r="AV35" t="str">
-        <f t="shared" ref="AV35:AV45" si="80">AV34&amp;", $"&amp;AG35</f>
+        <f t="shared" ref="AV35:AV45" si="81">AV34&amp;", $"&amp;AG35</f>
         <v>BottomRightCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0B, $0B, $0B, $0B, $0B, $0B, $0B, $0B, $0A, $0A, $0A, $0A, $0A, $0A, $0A</v>
       </c>
       <c r="AW35" t="str">
-        <f t="shared" ref="AW35:AW45" si="81">AW34&amp;" .byte "&amp;"$"&amp;AH35</f>
+        <f t="shared" ref="AW35:AW45" si="82">AW34&amp;" .byte "&amp;"$"&amp;AH35</f>
         <v xml:space="preserve"> .byte $, $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $</v>
       </c>
     </row>
@@ -5988,151 +5988,151 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="J36">
-        <f t="shared" si="45"/>
-        <v>2560</v>
-      </c>
-      <c r="K36">
         <f t="shared" si="46"/>
         <v>2560</v>
       </c>
-      <c r="L36">
+      <c r="K36">
         <f t="shared" si="47"/>
         <v>2560</v>
       </c>
-      <c r="M36">
+      <c r="L36">
         <f t="shared" si="48"/>
         <v>2560</v>
       </c>
-      <c r="N36">
+      <c r="M36">
         <f t="shared" si="49"/>
         <v>2560</v>
       </c>
-      <c r="O36">
+      <c r="N36">
         <f t="shared" si="50"/>
         <v>2560</v>
       </c>
+      <c r="O36">
+        <f t="shared" si="51"/>
+        <v>2560</v>
+      </c>
       <c r="P36" t="str">
-        <f t="shared" si="51"/>
-        <v>0A00</v>
-      </c>
-      <c r="Q36" t="str">
         <f t="shared" si="52"/>
         <v>0A00</v>
       </c>
-      <c r="R36" t="str">
+      <c r="Q36" t="str">
         <f t="shared" si="53"/>
         <v>0A00</v>
       </c>
-      <c r="S36" t="str">
+      <c r="R36" t="str">
         <f t="shared" si="54"/>
         <v>0A00</v>
       </c>
-      <c r="T36" t="str">
+      <c r="S36" t="str">
         <f t="shared" si="55"/>
         <v>0A00</v>
       </c>
-      <c r="U36" t="str">
+      <c r="T36" t="str">
         <f t="shared" si="56"/>
         <v>0A00</v>
       </c>
+      <c r="U36" t="str">
+        <f t="shared" si="57"/>
+        <v>0A00</v>
+      </c>
       <c r="V36" t="str">
-        <f t="shared" si="57"/>
-        <v>00</v>
-      </c>
-      <c r="W36" t="str">
         <f t="shared" si="58"/>
         <v>00</v>
       </c>
-      <c r="X36" t="str">
+      <c r="W36" t="str">
         <f t="shared" si="59"/>
         <v>00</v>
       </c>
-      <c r="Y36" t="str">
+      <c r="X36" t="str">
         <f t="shared" si="60"/>
         <v>00</v>
       </c>
-      <c r="Z36" t="str">
+      <c r="Y36" t="str">
         <f t="shared" si="61"/>
         <v>00</v>
       </c>
-      <c r="AA36" t="str">
+      <c r="Z36" t="str">
         <f t="shared" si="62"/>
         <v>00</v>
       </c>
+      <c r="AA36" t="str">
+        <f t="shared" si="63"/>
+        <v>00</v>
+      </c>
       <c r="AB36" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>0A</v>
       </c>
       <c r="AC36" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0A</v>
       </c>
       <c r="AD36" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0A</v>
       </c>
       <c r="AE36" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>0A</v>
       </c>
       <c r="AF36" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0A</v>
       </c>
       <c r="AG36" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0A</v>
       </c>
       <c r="AK36" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>TopLeftCharsLSB: .byte $00, $18, $48, $C8, $00, $18, $48, $C8, $C8, $00, $28, $00, $28, $00, $28, $00, $C8, $78, $A8, $D0, $C8, $78, $A8, $D0, $C8, $00, $70, $00, $80, $00, $90, $00</v>
       </c>
       <c r="AL36" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>TopRightCharsLSB: .byte $C8, $20, $50, $78, $C8, $20, $50, $78, $78, $00, $30, $00, $40, $00, $50, $00, $58, $70, $A0, $C8, $58, $70, $A0, $C8, $78, $00, $68, $00, $78, $00, $88, $00</v>
       </c>
       <c r="AM36" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>MiddleLeftCharsLSB: .byte $08, $28, $58, $C8, $B0, $98, $98, $C0, $C8, $00, $38, $00, $48, $00, $58, $00, $C8, $88, $B8, $D8, $00, $F8, $10, $D8, $C8, $00, $60, $00, $60, $00, $60, $00</v>
       </c>
       <c r="AN36" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>MiddleRightCharsLSB: .byte $C8, $30, $60, $80, $A8, $A0, $A0, $B8, $80, $00, $00, $00, $00, $00, $00, $00, $60, $80, $B0, $C8, $08, $F0, $18, $C8, $80, $00, $00, $00, $00, $00, $00, $00</v>
       </c>
       <c r="AO36" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>BottomLeftCharsLSB: .byte $10, $38, $68, $88, $10, $38, $68, $88, $88, $00, $00, $00, $00, $00, $00, $00, $C8, $98, $C8, $E8, $C8, $98, $C8, $E8, $88, $00, $00, $00, $00, $00, $00, $00</v>
       </c>
       <c r="AP36" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>BottomRightCharsLSB: .byte $C8, $40, $70, $90, $C8, $40, $70, $90, $90, $00, $00, $00, $00, $00, $00, $00, $68, $90, $C0, $E0, $68, $90, $C0, $E0, $90, $00, $00, $00, $00, $00, $00, $00</v>
       </c>
       <c r="AQ36" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>TopLeftCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A, $0A, $0B, $0B, $0B, $0A, $0B, $0B, $0B, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A</v>
       </c>
       <c r="AR36" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>TopRightCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A, $0B, $0B, $0B, $0A, $0B, $0B, $0B, $0A, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A</v>
       </c>
       <c r="AS36" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>MiddleLeftCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A, $0A, $0B, $0B, $0B, $0C, $0B, $0C, $0B, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A</v>
       </c>
       <c r="AT36" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>MiddleRightCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0B, $0B, $0B, $0A, $0C, $0B, $0C, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A</v>
       </c>
       <c r="AU36" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>BottomLeftCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0B, $0B, $0B, $0A, $0B, $0B, $0B, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A</v>
       </c>
       <c r="AV36" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>BottomRightCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0B, $0B, $0B, $0B, $0B, $0B, $0B, $0B, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A</v>
       </c>
       <c r="AW36" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v xml:space="preserve"> .byte $, $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $</v>
       </c>
     </row>
@@ -6162,151 +6162,151 @@
         <v>32</v>
       </c>
       <c r="J37">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>2776</v>
       </c>
       <c r="K37">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>2784</v>
       </c>
       <c r="L37">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>2792</v>
       </c>
       <c r="M37">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>2800</v>
       </c>
       <c r="N37">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>2808</v>
       </c>
       <c r="O37">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>2816</v>
       </c>
       <c r="P37" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0AD8</v>
       </c>
       <c r="Q37" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0AE0</v>
       </c>
       <c r="R37" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>0AE8</v>
       </c>
       <c r="S37" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0AF0</v>
       </c>
       <c r="T37" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0AF8</v>
       </c>
       <c r="U37" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0B00</v>
       </c>
       <c r="V37" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>D8</v>
       </c>
       <c r="W37" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>E0</v>
       </c>
       <c r="X37" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>E8</v>
       </c>
       <c r="Y37" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>F0</v>
       </c>
       <c r="Z37" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>F8</v>
       </c>
       <c r="AA37" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>00</v>
       </c>
       <c r="AB37" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>0A</v>
       </c>
       <c r="AC37" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0A</v>
       </c>
       <c r="AD37" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0A</v>
       </c>
       <c r="AE37" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>0A</v>
       </c>
       <c r="AF37" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0A</v>
       </c>
       <c r="AG37" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0B</v>
       </c>
       <c r="AK37" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>TopLeftCharsLSB: .byte $00, $18, $48, $C8, $00, $18, $48, $C8, $C8, $00, $28, $00, $28, $00, $28, $00, $C8, $78, $A8, $D0, $C8, $78, $A8, $D0, $C8, $00, $70, $00, $80, $00, $90, $00, $D8</v>
       </c>
       <c r="AL37" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>TopRightCharsLSB: .byte $C8, $20, $50, $78, $C8, $20, $50, $78, $78, $00, $30, $00, $40, $00, $50, $00, $58, $70, $A0, $C8, $58, $70, $A0, $C8, $78, $00, $68, $00, $78, $00, $88, $00, $E0</v>
       </c>
       <c r="AM37" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>MiddleLeftCharsLSB: .byte $08, $28, $58, $C8, $B0, $98, $98, $C0, $C8, $00, $38, $00, $48, $00, $58, $00, $C8, $88, $B8, $D8, $00, $F8, $10, $D8, $C8, $00, $60, $00, $60, $00, $60, $00, $E8</v>
       </c>
       <c r="AN37" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>MiddleRightCharsLSB: .byte $C8, $30, $60, $80, $A8, $A0, $A0, $B8, $80, $00, $00, $00, $00, $00, $00, $00, $60, $80, $B0, $C8, $08, $F0, $18, $C8, $80, $00, $00, $00, $00, $00, $00, $00, $F0</v>
       </c>
       <c r="AO37" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>BottomLeftCharsLSB: .byte $10, $38, $68, $88, $10, $38, $68, $88, $88, $00, $00, $00, $00, $00, $00, $00, $C8, $98, $C8, $E8, $C8, $98, $C8, $E8, $88, $00, $00, $00, $00, $00, $00, $00, $F8</v>
       </c>
       <c r="AP37" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>BottomRightCharsLSB: .byte $C8, $40, $70, $90, $C8, $40, $70, $90, $90, $00, $00, $00, $00, $00, $00, $00, $68, $90, $C0, $E0, $68, $90, $C0, $E0, $90, $00, $00, $00, $00, $00, $00, $00, $00</v>
       </c>
       <c r="AQ37" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>TopLeftCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A, $0A, $0B, $0B, $0B, $0A, $0B, $0B, $0B, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A, $0A</v>
       </c>
       <c r="AR37" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>TopRightCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A, $0B, $0B, $0B, $0A, $0B, $0B, $0B, $0A, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A, $0A</v>
       </c>
       <c r="AS37" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>MiddleLeftCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A, $0A, $0B, $0B, $0B, $0C, $0B, $0C, $0B, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A, $0A</v>
       </c>
       <c r="AT37" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>MiddleRightCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0B, $0B, $0B, $0A, $0C, $0B, $0C, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A</v>
       </c>
       <c r="AU37" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>BottomLeftCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0B, $0B, $0B, $0A, $0B, $0B, $0B, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A</v>
       </c>
       <c r="AV37" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>BottomRightCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0B, $0B, $0B, $0B, $0B, $0B, $0B, $0B, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0B</v>
       </c>
       <c r="AW37" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v xml:space="preserve"> .byte $, $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $</v>
       </c>
     </row>
@@ -6336,151 +6336,151 @@
         <v>37</v>
       </c>
       <c r="J38">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>2832</v>
       </c>
       <c r="K38">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>2824</v>
       </c>
       <c r="L38">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>2848</v>
       </c>
       <c r="M38">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>2840</v>
       </c>
       <c r="N38">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>2864</v>
       </c>
       <c r="O38">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>2856</v>
       </c>
       <c r="P38" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0B10</v>
       </c>
       <c r="Q38" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>0B08</v>
       </c>
       <c r="R38" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>0B20</v>
       </c>
       <c r="S38" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0B18</v>
       </c>
       <c r="T38" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>0B30</v>
       </c>
       <c r="U38" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0B28</v>
       </c>
       <c r="V38" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>10</v>
       </c>
       <c r="W38" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>08</v>
       </c>
       <c r="X38" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>20</v>
       </c>
       <c r="Y38" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>18</v>
       </c>
       <c r="Z38" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>30</v>
       </c>
       <c r="AA38" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" si="63"/>
         <v>28</v>
       </c>
       <c r="AB38" t="str">
-        <f t="shared" si="63"/>
-        <v>0B</v>
-      </c>
-      <c r="AC38" t="str">
         <f t="shared" si="64"/>
         <v>0B</v>
       </c>
-      <c r="AD38" t="str">
+      <c r="AC38" t="str">
         <f t="shared" si="65"/>
         <v>0B</v>
       </c>
-      <c r="AE38" t="str">
+      <c r="AD38" t="str">
         <f t="shared" si="66"/>
         <v>0B</v>
       </c>
-      <c r="AF38" t="str">
+      <c r="AE38" t="str">
         <f t="shared" si="67"/>
         <v>0B</v>
       </c>
-      <c r="AG38" t="str">
+      <c r="AF38" t="str">
         <f t="shared" si="68"/>
         <v>0B</v>
       </c>
+      <c r="AG38" t="str">
+        <f t="shared" si="69"/>
+        <v>0B</v>
+      </c>
       <c r="AK38" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>TopLeftCharsLSB: .byte $00, $18, $48, $C8, $00, $18, $48, $C8, $C8, $00, $28, $00, $28, $00, $28, $00, $C8, $78, $A8, $D0, $C8, $78, $A8, $D0, $C8, $00, $70, $00, $80, $00, $90, $00, $D8, $10</v>
       </c>
       <c r="AL38" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>TopRightCharsLSB: .byte $C8, $20, $50, $78, $C8, $20, $50, $78, $78, $00, $30, $00, $40, $00, $50, $00, $58, $70, $A0, $C8, $58, $70, $A0, $C8, $78, $00, $68, $00, $78, $00, $88, $00, $E0, $08</v>
       </c>
       <c r="AM38" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>MiddleLeftCharsLSB: .byte $08, $28, $58, $C8, $B0, $98, $98, $C0, $C8, $00, $38, $00, $48, $00, $58, $00, $C8, $88, $B8, $D8, $00, $F8, $10, $D8, $C8, $00, $60, $00, $60, $00, $60, $00, $E8, $20</v>
       </c>
       <c r="AN38" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>MiddleRightCharsLSB: .byte $C8, $30, $60, $80, $A8, $A0, $A0, $B8, $80, $00, $00, $00, $00, $00, $00, $00, $60, $80, $B0, $C8, $08, $F0, $18, $C8, $80, $00, $00, $00, $00, $00, $00, $00, $F0, $18</v>
       </c>
       <c r="AO38" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>BottomLeftCharsLSB: .byte $10, $38, $68, $88, $10, $38, $68, $88, $88, $00, $00, $00, $00, $00, $00, $00, $C8, $98, $C8, $E8, $C8, $98, $C8, $E8, $88, $00, $00, $00, $00, $00, $00, $00, $F8, $30</v>
       </c>
       <c r="AP38" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>BottomRightCharsLSB: .byte $C8, $40, $70, $90, $C8, $40, $70, $90, $90, $00, $00, $00, $00, $00, $00, $00, $68, $90, $C0, $E0, $68, $90, $C0, $E0, $90, $00, $00, $00, $00, $00, $00, $00, $00, $28</v>
       </c>
       <c r="AQ38" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>TopLeftCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A, $0A, $0B, $0B, $0B, $0A, $0B, $0B, $0B, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A, $0A, $0B</v>
       </c>
       <c r="AR38" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>TopRightCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A, $0B, $0B, $0B, $0A, $0B, $0B, $0B, $0A, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A, $0A, $0B</v>
       </c>
       <c r="AS38" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>MiddleLeftCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A, $0A, $0B, $0B, $0B, $0C, $0B, $0C, $0B, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A, $0A, $0B</v>
       </c>
       <c r="AT38" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>MiddleRightCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0B, $0B, $0B, $0A, $0C, $0B, $0C, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0B</v>
       </c>
       <c r="AU38" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>BottomLeftCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0B, $0B, $0B, $0A, $0B, $0B, $0B, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0B</v>
       </c>
       <c r="AV38" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>BottomRightCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0B, $0B, $0B, $0B, $0B, $0B, $0B, $0B, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0B, $0B</v>
       </c>
       <c r="AW38" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v xml:space="preserve"> .byte $, $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $</v>
       </c>
     </row>
@@ -6495,151 +6495,151 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="J39">
-        <f t="shared" si="45"/>
-        <v>2560</v>
-      </c>
-      <c r="K39">
         <f t="shared" si="46"/>
         <v>2560</v>
       </c>
-      <c r="L39">
+      <c r="K39">
         <f t="shared" si="47"/>
         <v>2560</v>
       </c>
-      <c r="M39">
+      <c r="L39">
         <f t="shared" si="48"/>
         <v>2560</v>
       </c>
-      <c r="N39">
+      <c r="M39">
         <f t="shared" si="49"/>
         <v>2560</v>
       </c>
-      <c r="O39">
+      <c r="N39">
         <f t="shared" si="50"/>
         <v>2560</v>
       </c>
+      <c r="O39">
+        <f t="shared" si="51"/>
+        <v>2560</v>
+      </c>
       <c r="P39" t="str">
-        <f t="shared" si="51"/>
-        <v>0A00</v>
-      </c>
-      <c r="Q39" t="str">
         <f t="shared" si="52"/>
         <v>0A00</v>
       </c>
-      <c r="R39" t="str">
+      <c r="Q39" t="str">
         <f t="shared" si="53"/>
         <v>0A00</v>
       </c>
-      <c r="S39" t="str">
+      <c r="R39" t="str">
         <f t="shared" si="54"/>
         <v>0A00</v>
       </c>
-      <c r="T39" t="str">
+      <c r="S39" t="str">
         <f t="shared" si="55"/>
         <v>0A00</v>
       </c>
-      <c r="U39" t="str">
+      <c r="T39" t="str">
         <f t="shared" si="56"/>
         <v>0A00</v>
       </c>
+      <c r="U39" t="str">
+        <f t="shared" si="57"/>
+        <v>0A00</v>
+      </c>
       <c r="V39" t="str">
-        <f t="shared" si="57"/>
-        <v>00</v>
-      </c>
-      <c r="W39" t="str">
         <f t="shared" si="58"/>
         <v>00</v>
       </c>
-      <c r="X39" t="str">
+      <c r="W39" t="str">
         <f t="shared" si="59"/>
         <v>00</v>
       </c>
-      <c r="Y39" t="str">
+      <c r="X39" t="str">
         <f t="shared" si="60"/>
         <v>00</v>
       </c>
-      <c r="Z39" t="str">
+      <c r="Y39" t="str">
         <f t="shared" si="61"/>
         <v>00</v>
       </c>
-      <c r="AA39" t="str">
+      <c r="Z39" t="str">
         <f t="shared" si="62"/>
         <v>00</v>
       </c>
+      <c r="AA39" t="str">
+        <f t="shared" si="63"/>
+        <v>00</v>
+      </c>
       <c r="AB39" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="64"/>
         <v>0A</v>
       </c>
       <c r="AC39" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="65"/>
         <v>0A</v>
       </c>
       <c r="AD39" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" si="66"/>
         <v>0A</v>
       </c>
       <c r="AE39" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" si="67"/>
         <v>0A</v>
       </c>
       <c r="AF39" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" si="68"/>
         <v>0A</v>
       </c>
       <c r="AG39" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" si="69"/>
         <v>0A</v>
       </c>
       <c r="AK39" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>TopLeftCharsLSB: .byte $00, $18, $48, $C8, $00, $18, $48, $C8, $C8, $00, $28, $00, $28, $00, $28, $00, $C8, $78, $A8, $D0, $C8, $78, $A8, $D0, $C8, $00, $70, $00, $80, $00, $90, $00, $D8, $10, $00</v>
       </c>
       <c r="AL39" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>TopRightCharsLSB: .byte $C8, $20, $50, $78, $C8, $20, $50, $78, $78, $00, $30, $00, $40, $00, $50, $00, $58, $70, $A0, $C8, $58, $70, $A0, $C8, $78, $00, $68, $00, $78, $00, $88, $00, $E0, $08, $00</v>
       </c>
       <c r="AM39" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>MiddleLeftCharsLSB: .byte $08, $28, $58, $C8, $B0, $98, $98, $C0, $C8, $00, $38, $00, $48, $00, $58, $00, $C8, $88, $B8, $D8, $00, $F8, $10, $D8, $C8, $00, $60, $00, $60, $00, $60, $00, $E8, $20, $00</v>
       </c>
       <c r="AN39" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>MiddleRightCharsLSB: .byte $C8, $30, $60, $80, $A8, $A0, $A0, $B8, $80, $00, $00, $00, $00, $00, $00, $00, $60, $80, $B0, $C8, $08, $F0, $18, $C8, $80, $00, $00, $00, $00, $00, $00, $00, $F0, $18, $00</v>
       </c>
       <c r="AO39" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>BottomLeftCharsLSB: .byte $10, $38, $68, $88, $10, $38, $68, $88, $88, $00, $00, $00, $00, $00, $00, $00, $C8, $98, $C8, $E8, $C8, $98, $C8, $E8, $88, $00, $00, $00, $00, $00, $00, $00, $F8, $30, $00</v>
       </c>
       <c r="AP39" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>BottomRightCharsLSB: .byte $C8, $40, $70, $90, $C8, $40, $70, $90, $90, $00, $00, $00, $00, $00, $00, $00, $68, $90, $C0, $E0, $68, $90, $C0, $E0, $90, $00, $00, $00, $00, $00, $00, $00, $00, $28, $00</v>
       </c>
       <c r="AQ39" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>TopLeftCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A, $0A, $0B, $0B, $0B, $0A, $0B, $0B, $0B, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A, $0A, $0B, $0A</v>
       </c>
       <c r="AR39" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>TopRightCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A, $0B, $0B, $0B, $0A, $0B, $0B, $0B, $0A, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A, $0A, $0B, $0A</v>
       </c>
       <c r="AS39" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>MiddleLeftCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A, $0A, $0B, $0B, $0B, $0C, $0B, $0C, $0B, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A, $0A, $0B, $0A</v>
       </c>
       <c r="AT39" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>MiddleRightCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0B, $0B, $0B, $0A, $0C, $0B, $0C, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0B, $0A</v>
       </c>
       <c r="AU39" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>BottomLeftCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0B, $0B, $0B, $0A, $0B, $0B, $0B, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0B, $0A</v>
       </c>
       <c r="AV39" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>BottomRightCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0B, $0B, $0B, $0B, $0B, $0B, $0B, $0B, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0B, $0B, $0A</v>
       </c>
       <c r="AW39" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v xml:space="preserve"> .byte $, $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $</v>
       </c>
     </row>
@@ -6654,151 +6654,151 @@
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="J40">
-        <f t="shared" ref="J40:J44" si="82">(C40*8)+2560</f>
+        <f t="shared" ref="J40:J44" si="83">(C40*8)+2560</f>
         <v>2560</v>
       </c>
       <c r="K40">
-        <f t="shared" ref="K40:K44" si="83">(D40*8)+2560</f>
+        <f t="shared" ref="K40:K44" si="84">(D40*8)+2560</f>
         <v>2560</v>
       </c>
       <c r="L40">
-        <f t="shared" ref="L40:L44" si="84">(E40*8)+2560</f>
+        <f t="shared" ref="L40:L44" si="85">(E40*8)+2560</f>
         <v>2560</v>
       </c>
       <c r="M40">
-        <f t="shared" ref="M40:M44" si="85">(F40*8)+2560</f>
+        <f t="shared" ref="M40:M44" si="86">(F40*8)+2560</f>
         <v>2560</v>
       </c>
       <c r="N40">
-        <f t="shared" ref="N40:N44" si="86">(G40*8)+2560</f>
+        <f t="shared" ref="N40:N44" si="87">(G40*8)+2560</f>
         <v>2560</v>
       </c>
       <c r="O40">
-        <f t="shared" ref="O40:O44" si="87">(H40*8)+2560</f>
+        <f t="shared" ref="O40:O44" si="88">(H40*8)+2560</f>
         <v>2560</v>
       </c>
       <c r="P40" t="str">
-        <f t="shared" ref="P40:P44" si="88">DEC2HEX(J40,4)</f>
+        <f t="shared" ref="P40:P44" si="89">DEC2HEX(J40,4)</f>
         <v>0A00</v>
       </c>
       <c r="Q40" t="str">
-        <f t="shared" ref="Q40:Q44" si="89">DEC2HEX(K40,4)</f>
+        <f t="shared" ref="Q40:Q44" si="90">DEC2HEX(K40,4)</f>
         <v>0A00</v>
       </c>
       <c r="R40" t="str">
-        <f t="shared" ref="R40:R44" si="90">DEC2HEX(L40,4)</f>
+        <f t="shared" ref="R40:R44" si="91">DEC2HEX(L40,4)</f>
         <v>0A00</v>
       </c>
       <c r="S40" t="str">
-        <f t="shared" ref="S40:S44" si="91">DEC2HEX(M40,4)</f>
+        <f t="shared" ref="S40:S44" si="92">DEC2HEX(M40,4)</f>
         <v>0A00</v>
       </c>
       <c r="T40" t="str">
-        <f t="shared" ref="T40:T44" si="92">DEC2HEX(N40,4)</f>
+        <f t="shared" ref="T40:T44" si="93">DEC2HEX(N40,4)</f>
         <v>0A00</v>
       </c>
       <c r="U40" t="str">
-        <f t="shared" ref="U40:U44" si="93">DEC2HEX(O40,4)</f>
+        <f t="shared" ref="U40:U44" si="94">DEC2HEX(O40,4)</f>
         <v>0A00</v>
       </c>
       <c r="V40" t="str">
-        <f t="shared" ref="V40:V44" si="94">RIGHT(P40,2)</f>
+        <f t="shared" ref="V40:V44" si="95">RIGHT(P40,2)</f>
         <v>00</v>
       </c>
       <c r="W40" t="str">
-        <f t="shared" ref="W40:W44" si="95">RIGHT(Q40,2)</f>
+        <f t="shared" ref="W40:W44" si="96">RIGHT(Q40,2)</f>
         <v>00</v>
       </c>
       <c r="X40" t="str">
-        <f t="shared" ref="X40:X44" si="96">RIGHT(R40,2)</f>
+        <f t="shared" ref="X40:X44" si="97">RIGHT(R40,2)</f>
         <v>00</v>
       </c>
       <c r="Y40" t="str">
-        <f t="shared" ref="Y40:Y44" si="97">RIGHT(S40,2)</f>
+        <f t="shared" ref="Y40:Y44" si="98">RIGHT(S40,2)</f>
         <v>00</v>
       </c>
       <c r="Z40" t="str">
-        <f t="shared" ref="Z40:Z44" si="98">RIGHT(T40,2)</f>
+        <f t="shared" ref="Z40:Z44" si="99">RIGHT(T40,2)</f>
         <v>00</v>
       </c>
       <c r="AA40" t="str">
-        <f t="shared" ref="AA40:AA44" si="99">RIGHT(U40,2)</f>
+        <f t="shared" ref="AA40:AA44" si="100">RIGHT(U40,2)</f>
         <v>00</v>
       </c>
       <c r="AB40" t="str">
-        <f t="shared" ref="AB40:AB44" si="100">LEFT(P40,2)</f>
+        <f t="shared" ref="AB40:AB44" si="101">LEFT(P40,2)</f>
         <v>0A</v>
       </c>
       <c r="AC40" t="str">
-        <f t="shared" ref="AC40:AC44" si="101">LEFT(Q40,2)</f>
+        <f t="shared" ref="AC40:AC44" si="102">LEFT(Q40,2)</f>
         <v>0A</v>
       </c>
       <c r="AD40" t="str">
-        <f t="shared" ref="AD40:AD44" si="102">LEFT(R40,2)</f>
+        <f t="shared" ref="AD40:AD44" si="103">LEFT(R40,2)</f>
         <v>0A</v>
       </c>
       <c r="AE40" t="str">
-        <f t="shared" ref="AE40:AE44" si="103">LEFT(S40,2)</f>
+        <f t="shared" ref="AE40:AE44" si="104">LEFT(S40,2)</f>
         <v>0A</v>
       </c>
       <c r="AF40" t="str">
-        <f t="shared" ref="AF40:AF44" si="104">LEFT(T40,2)</f>
+        <f t="shared" ref="AF40:AF44" si="105">LEFT(T40,2)</f>
         <v>0A</v>
       </c>
       <c r="AG40" t="str">
-        <f t="shared" ref="AG40:AG44" si="105">LEFT(U40,2)</f>
+        <f t="shared" ref="AG40:AG44" si="106">LEFT(U40,2)</f>
         <v>0A</v>
       </c>
       <c r="AK40" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>TopLeftCharsLSB: .byte $00, $18, $48, $C8, $00, $18, $48, $C8, $C8, $00, $28, $00, $28, $00, $28, $00, $C8, $78, $A8, $D0, $C8, $78, $A8, $D0, $C8, $00, $70, $00, $80, $00, $90, $00, $D8, $10, $00, $00</v>
       </c>
       <c r="AL40" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>TopRightCharsLSB: .byte $C8, $20, $50, $78, $C8, $20, $50, $78, $78, $00, $30, $00, $40, $00, $50, $00, $58, $70, $A0, $C8, $58, $70, $A0, $C8, $78, $00, $68, $00, $78, $00, $88, $00, $E0, $08, $00, $00</v>
       </c>
       <c r="AM40" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>MiddleLeftCharsLSB: .byte $08, $28, $58, $C8, $B0, $98, $98, $C0, $C8, $00, $38, $00, $48, $00, $58, $00, $C8, $88, $B8, $D8, $00, $F8, $10, $D8, $C8, $00, $60, $00, $60, $00, $60, $00, $E8, $20, $00, $00</v>
       </c>
       <c r="AN40" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>MiddleRightCharsLSB: .byte $C8, $30, $60, $80, $A8, $A0, $A0, $B8, $80, $00, $00, $00, $00, $00, $00, $00, $60, $80, $B0, $C8, $08, $F0, $18, $C8, $80, $00, $00, $00, $00, $00, $00, $00, $F0, $18, $00, $00</v>
       </c>
       <c r="AO40" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>BottomLeftCharsLSB: .byte $10, $38, $68, $88, $10, $38, $68, $88, $88, $00, $00, $00, $00, $00, $00, $00, $C8, $98, $C8, $E8, $C8, $98, $C8, $E8, $88, $00, $00, $00, $00, $00, $00, $00, $F8, $30, $00, $00</v>
       </c>
       <c r="AP40" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>BottomRightCharsLSB: .byte $C8, $40, $70, $90, $C8, $40, $70, $90, $90, $00, $00, $00, $00, $00, $00, $00, $68, $90, $C0, $E0, $68, $90, $C0, $E0, $90, $00, $00, $00, $00, $00, $00, $00, $00, $28, $00, $00</v>
       </c>
       <c r="AQ40" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>TopLeftCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A, $0A, $0B, $0B, $0B, $0A, $0B, $0B, $0B, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A, $0A, $0B, $0A, $0A</v>
       </c>
       <c r="AR40" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>TopRightCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A, $0B, $0B, $0B, $0A, $0B, $0B, $0B, $0A, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A, $0A, $0B, $0A, $0A</v>
       </c>
       <c r="AS40" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>MiddleLeftCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A, $0A, $0B, $0B, $0B, $0C, $0B, $0C, $0B, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A, $0A, $0B, $0A, $0A</v>
       </c>
       <c r="AT40" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>MiddleRightCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0B, $0B, $0B, $0A, $0C, $0B, $0C, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0B, $0A, $0A</v>
       </c>
       <c r="AU40" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>BottomLeftCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0B, $0B, $0B, $0A, $0B, $0B, $0B, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0B, $0A, $0A</v>
       </c>
       <c r="AV40" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>BottomRightCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0B, $0B, $0B, $0B, $0B, $0B, $0B, $0B, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0B, $0B, $0A, $0A</v>
       </c>
       <c r="AW40" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v xml:space="preserve"> .byte $, $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $</v>
       </c>
     </row>
@@ -6828,151 +6828,151 @@
         <v>32</v>
       </c>
       <c r="J41">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>2776</v>
       </c>
       <c r="K41">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>2784</v>
       </c>
       <c r="L41">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>3216</v>
       </c>
       <c r="M41">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>3224</v>
       </c>
       <c r="N41">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>2808</v>
       </c>
       <c r="O41">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>2816</v>
       </c>
       <c r="P41" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>0AD8</v>
       </c>
       <c r="Q41" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>0AE0</v>
       </c>
       <c r="R41" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>0C90</v>
       </c>
       <c r="S41" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0C98</v>
       </c>
       <c r="T41" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>0AF8</v>
       </c>
       <c r="U41" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>0B00</v>
       </c>
       <c r="V41" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>D8</v>
       </c>
       <c r="W41" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>E0</v>
       </c>
       <c r="X41" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>90</v>
       </c>
       <c r="Y41" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>98</v>
       </c>
       <c r="Z41" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>F8</v>
       </c>
       <c r="AA41" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>00</v>
       </c>
       <c r="AB41" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>0A</v>
       </c>
       <c r="AC41" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>0A</v>
       </c>
       <c r="AD41" t="str">
-        <f t="shared" si="102"/>
-        <v>0C</v>
-      </c>
-      <c r="AE41" t="str">
         <f t="shared" si="103"/>
         <v>0C</v>
       </c>
+      <c r="AE41" t="str">
+        <f t="shared" si="104"/>
+        <v>0C</v>
+      </c>
       <c r="AF41" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>0A</v>
       </c>
       <c r="AG41" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0B</v>
       </c>
       <c r="AK41" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>TopLeftCharsLSB: .byte $00, $18, $48, $C8, $00, $18, $48, $C8, $C8, $00, $28, $00, $28, $00, $28, $00, $C8, $78, $A8, $D0, $C8, $78, $A8, $D0, $C8, $00, $70, $00, $80, $00, $90, $00, $D8, $10, $00, $00, $D8</v>
       </c>
       <c r="AL41" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>TopRightCharsLSB: .byte $C8, $20, $50, $78, $C8, $20, $50, $78, $78, $00, $30, $00, $40, $00, $50, $00, $58, $70, $A0, $C8, $58, $70, $A0, $C8, $78, $00, $68, $00, $78, $00, $88, $00, $E0, $08, $00, $00, $E0</v>
       </c>
       <c r="AM41" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>MiddleLeftCharsLSB: .byte $08, $28, $58, $C8, $B0, $98, $98, $C0, $C8, $00, $38, $00, $48, $00, $58, $00, $C8, $88, $B8, $D8, $00, $F8, $10, $D8, $C8, $00, $60, $00, $60, $00, $60, $00, $E8, $20, $00, $00, $90</v>
       </c>
       <c r="AN41" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>MiddleRightCharsLSB: .byte $C8, $30, $60, $80, $A8, $A0, $A0, $B8, $80, $00, $00, $00, $00, $00, $00, $00, $60, $80, $B0, $C8, $08, $F0, $18, $C8, $80, $00, $00, $00, $00, $00, $00, $00, $F0, $18, $00, $00, $98</v>
       </c>
       <c r="AO41" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>BottomLeftCharsLSB: .byte $10, $38, $68, $88, $10, $38, $68, $88, $88, $00, $00, $00, $00, $00, $00, $00, $C8, $98, $C8, $E8, $C8, $98, $C8, $E8, $88, $00, $00, $00, $00, $00, $00, $00, $F8, $30, $00, $00, $F8</v>
       </c>
       <c r="AP41" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>BottomRightCharsLSB: .byte $C8, $40, $70, $90, $C8, $40, $70, $90, $90, $00, $00, $00, $00, $00, $00, $00, $68, $90, $C0, $E0, $68, $90, $C0, $E0, $90, $00, $00, $00, $00, $00, $00, $00, $00, $28, $00, $00, $00</v>
       </c>
       <c r="AQ41" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>TopLeftCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A, $0A, $0B, $0B, $0B, $0A, $0B, $0B, $0B, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A, $0A, $0B, $0A, $0A, $0A</v>
       </c>
       <c r="AR41" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>TopRightCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A, $0B, $0B, $0B, $0A, $0B, $0B, $0B, $0A, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A, $0A, $0B, $0A, $0A, $0A</v>
       </c>
       <c r="AS41" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>MiddleLeftCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A, $0A, $0B, $0B, $0B, $0C, $0B, $0C, $0B, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A, $0A, $0B, $0A, $0A, $0C</v>
       </c>
       <c r="AT41" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>MiddleRightCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0B, $0B, $0B, $0A, $0C, $0B, $0C, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0B, $0A, $0A, $0C</v>
       </c>
       <c r="AU41" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>BottomLeftCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0B, $0B, $0B, $0A, $0B, $0B, $0B, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0B, $0A, $0A, $0A</v>
       </c>
       <c r="AV41" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>BottomRightCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0B, $0B, $0B, $0B, $0B, $0B, $0B, $0B, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0B, $0B, $0A, $0A, $0B</v>
       </c>
       <c r="AW41" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v xml:space="preserve"> .byte $, $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $</v>
       </c>
     </row>
@@ -7002,151 +7002,151 @@
         <v>37</v>
       </c>
       <c r="J42">
-        <f t="shared" si="82"/>
+        <f t="shared" si="83"/>
         <v>2832</v>
       </c>
       <c r="K42">
-        <f t="shared" si="83"/>
+        <f t="shared" si="84"/>
         <v>2824</v>
       </c>
       <c r="L42">
-        <f t="shared" si="84"/>
+        <f t="shared" si="85"/>
         <v>3240</v>
       </c>
       <c r="M42">
-        <f t="shared" si="85"/>
+        <f t="shared" si="86"/>
         <v>3232</v>
       </c>
       <c r="N42">
-        <f t="shared" si="86"/>
+        <f t="shared" si="87"/>
         <v>2864</v>
       </c>
       <c r="O42">
-        <f t="shared" si="87"/>
+        <f t="shared" si="88"/>
         <v>2856</v>
       </c>
       <c r="P42" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" si="89"/>
         <v>0B10</v>
       </c>
       <c r="Q42" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" si="90"/>
         <v>0B08</v>
       </c>
       <c r="R42" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" si="91"/>
         <v>0CA8</v>
       </c>
       <c r="S42" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0CA0</v>
       </c>
       <c r="T42" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>0B30</v>
       </c>
       <c r="U42" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" si="94"/>
         <v>0B28</v>
       </c>
       <c r="V42" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" si="95"/>
         <v>10</v>
       </c>
       <c r="W42" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" si="96"/>
         <v>08</v>
       </c>
       <c r="X42" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" si="97"/>
         <v>A8</v>
       </c>
       <c r="Y42" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" si="98"/>
         <v>A0</v>
       </c>
       <c r="Z42" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" si="99"/>
         <v>30</v>
       </c>
       <c r="AA42" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" si="100"/>
         <v>28</v>
       </c>
       <c r="AB42" t="str">
-        <f t="shared" si="100"/>
-        <v>0B</v>
-      </c>
-      <c r="AC42" t="str">
         <f t="shared" si="101"/>
         <v>0B</v>
       </c>
+      <c r="AC42" t="str">
+        <f t="shared" si="102"/>
+        <v>0B</v>
+      </c>
       <c r="AD42" t="str">
-        <f t="shared" si="102"/>
-        <v>0C</v>
-      </c>
-      <c r="AE42" t="str">
         <f t="shared" si="103"/>
         <v>0C</v>
       </c>
+      <c r="AE42" t="str">
+        <f t="shared" si="104"/>
+        <v>0C</v>
+      </c>
       <c r="AF42" t="str">
-        <f t="shared" si="104"/>
-        <v>0B</v>
-      </c>
-      <c r="AG42" t="str">
         <f t="shared" si="105"/>
         <v>0B</v>
       </c>
+      <c r="AG42" t="str">
+        <f t="shared" si="106"/>
+        <v>0B</v>
+      </c>
       <c r="AK42" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>TopLeftCharsLSB: .byte $00, $18, $48, $C8, $00, $18, $48, $C8, $C8, $00, $28, $00, $28, $00, $28, $00, $C8, $78, $A8, $D0, $C8, $78, $A8, $D0, $C8, $00, $70, $00, $80, $00, $90, $00, $D8, $10, $00, $00, $D8, $10</v>
       </c>
       <c r="AL42" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>TopRightCharsLSB: .byte $C8, $20, $50, $78, $C8, $20, $50, $78, $78, $00, $30, $00, $40, $00, $50, $00, $58, $70, $A0, $C8, $58, $70, $A0, $C8, $78, $00, $68, $00, $78, $00, $88, $00, $E0, $08, $00, $00, $E0, $08</v>
       </c>
       <c r="AM42" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>MiddleLeftCharsLSB: .byte $08, $28, $58, $C8, $B0, $98, $98, $C0, $C8, $00, $38, $00, $48, $00, $58, $00, $C8, $88, $B8, $D8, $00, $F8, $10, $D8, $C8, $00, $60, $00, $60, $00, $60, $00, $E8, $20, $00, $00, $90, $A8</v>
       </c>
       <c r="AN42" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>MiddleRightCharsLSB: .byte $C8, $30, $60, $80, $A8, $A0, $A0, $B8, $80, $00, $00, $00, $00, $00, $00, $00, $60, $80, $B0, $C8, $08, $F0, $18, $C8, $80, $00, $00, $00, $00, $00, $00, $00, $F0, $18, $00, $00, $98, $A0</v>
       </c>
       <c r="AO42" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>BottomLeftCharsLSB: .byte $10, $38, $68, $88, $10, $38, $68, $88, $88, $00, $00, $00, $00, $00, $00, $00, $C8, $98, $C8, $E8, $C8, $98, $C8, $E8, $88, $00, $00, $00, $00, $00, $00, $00, $F8, $30, $00, $00, $F8, $30</v>
       </c>
       <c r="AP42" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>BottomRightCharsLSB: .byte $C8, $40, $70, $90, $C8, $40, $70, $90, $90, $00, $00, $00, $00, $00, $00, $00, $68, $90, $C0, $E0, $68, $90, $C0, $E0, $90, $00, $00, $00, $00, $00, $00, $00, $00, $28, $00, $00, $00, $28</v>
       </c>
       <c r="AQ42" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>TopLeftCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A, $0A, $0B, $0B, $0B, $0A, $0B, $0B, $0B, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A, $0A, $0B, $0A, $0A, $0A, $0B</v>
       </c>
       <c r="AR42" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>TopRightCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A, $0B, $0B, $0B, $0A, $0B, $0B, $0B, $0A, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A, $0A, $0B, $0A, $0A, $0A, $0B</v>
       </c>
       <c r="AS42" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>MiddleLeftCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A, $0A, $0B, $0B, $0B, $0C, $0B, $0C, $0B, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A, $0A, $0B, $0A, $0A, $0C, $0C</v>
       </c>
       <c r="AT42" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>MiddleRightCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0B, $0B, $0B, $0A, $0C, $0B, $0C, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0B, $0A, $0A, $0C, $0C</v>
       </c>
       <c r="AU42" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>BottomLeftCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0B, $0B, $0B, $0A, $0B, $0B, $0B, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0B, $0A, $0A, $0A, $0B</v>
       </c>
       <c r="AV42" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>BottomRightCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0B, $0B, $0B, $0B, $0B, $0B, $0B, $0B, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0B, $0B, $0A, $0A, $0B, $0B</v>
       </c>
       <c r="AW42" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v xml:space="preserve"> .byte $, $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $</v>
       </c>
     </row>
@@ -7161,151 +7161,151 @@
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="J43">
-        <f t="shared" si="82"/>
-        <v>2560</v>
-      </c>
-      <c r="K43">
         <f t="shared" si="83"/>
         <v>2560</v>
       </c>
-      <c r="L43">
+      <c r="K43">
         <f t="shared" si="84"/>
         <v>2560</v>
       </c>
-      <c r="M43">
+      <c r="L43">
         <f t="shared" si="85"/>
         <v>2560</v>
       </c>
-      <c r="N43">
+      <c r="M43">
         <f t="shared" si="86"/>
         <v>2560</v>
       </c>
-      <c r="O43">
+      <c r="N43">
         <f t="shared" si="87"/>
         <v>2560</v>
       </c>
+      <c r="O43">
+        <f t="shared" si="88"/>
+        <v>2560</v>
+      </c>
       <c r="P43" t="str">
-        <f t="shared" si="88"/>
-        <v>0A00</v>
-      </c>
-      <c r="Q43" t="str">
         <f t="shared" si="89"/>
         <v>0A00</v>
       </c>
-      <c r="R43" t="str">
+      <c r="Q43" t="str">
         <f t="shared" si="90"/>
         <v>0A00</v>
       </c>
-      <c r="S43" t="str">
+      <c r="R43" t="str">
         <f t="shared" si="91"/>
         <v>0A00</v>
       </c>
-      <c r="T43" t="str">
+      <c r="S43" t="str">
         <f t="shared" si="92"/>
         <v>0A00</v>
       </c>
-      <c r="U43" t="str">
+      <c r="T43" t="str">
         <f t="shared" si="93"/>
         <v>0A00</v>
       </c>
+      <c r="U43" t="str">
+        <f t="shared" si="94"/>
+        <v>0A00</v>
+      </c>
       <c r="V43" t="str">
-        <f t="shared" si="94"/>
-        <v>00</v>
-      </c>
-      <c r="W43" t="str">
         <f t="shared" si="95"/>
         <v>00</v>
       </c>
-      <c r="X43" t="str">
+      <c r="W43" t="str">
         <f t="shared" si="96"/>
         <v>00</v>
       </c>
-      <c r="Y43" t="str">
+      <c r="X43" t="str">
         <f t="shared" si="97"/>
         <v>00</v>
       </c>
-      <c r="Z43" t="str">
+      <c r="Y43" t="str">
         <f t="shared" si="98"/>
         <v>00</v>
       </c>
-      <c r="AA43" t="str">
+      <c r="Z43" t="str">
         <f t="shared" si="99"/>
         <v>00</v>
       </c>
+      <c r="AA43" t="str">
+        <f t="shared" si="100"/>
+        <v>00</v>
+      </c>
       <c r="AB43" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>0A</v>
       </c>
       <c r="AC43" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>0A</v>
       </c>
       <c r="AD43" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>0A</v>
       </c>
       <c r="AE43" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>0A</v>
       </c>
       <c r="AF43" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>0A</v>
       </c>
       <c r="AG43" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0A</v>
       </c>
       <c r="AK43" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>TopLeftCharsLSB: .byte $00, $18, $48, $C8, $00, $18, $48, $C8, $C8, $00, $28, $00, $28, $00, $28, $00, $C8, $78, $A8, $D0, $C8, $78, $A8, $D0, $C8, $00, $70, $00, $80, $00, $90, $00, $D8, $10, $00, $00, $D8, $10, $00</v>
       </c>
       <c r="AL43" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>TopRightCharsLSB: .byte $C8, $20, $50, $78, $C8, $20, $50, $78, $78, $00, $30, $00, $40, $00, $50, $00, $58, $70, $A0, $C8, $58, $70, $A0, $C8, $78, $00, $68, $00, $78, $00, $88, $00, $E0, $08, $00, $00, $E0, $08, $00</v>
       </c>
       <c r="AM43" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>MiddleLeftCharsLSB: .byte $08, $28, $58, $C8, $B0, $98, $98, $C0, $C8, $00, $38, $00, $48, $00, $58, $00, $C8, $88, $B8, $D8, $00, $F8, $10, $D8, $C8, $00, $60, $00, $60, $00, $60, $00, $E8, $20, $00, $00, $90, $A8, $00</v>
       </c>
       <c r="AN43" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>MiddleRightCharsLSB: .byte $C8, $30, $60, $80, $A8, $A0, $A0, $B8, $80, $00, $00, $00, $00, $00, $00, $00, $60, $80, $B0, $C8, $08, $F0, $18, $C8, $80, $00, $00, $00, $00, $00, $00, $00, $F0, $18, $00, $00, $98, $A0, $00</v>
       </c>
       <c r="AO43" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>BottomLeftCharsLSB: .byte $10, $38, $68, $88, $10, $38, $68, $88, $88, $00, $00, $00, $00, $00, $00, $00, $C8, $98, $C8, $E8, $C8, $98, $C8, $E8, $88, $00, $00, $00, $00, $00, $00, $00, $F8, $30, $00, $00, $F8, $30, $00</v>
       </c>
       <c r="AP43" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>BottomRightCharsLSB: .byte $C8, $40, $70, $90, $C8, $40, $70, $90, $90, $00, $00, $00, $00, $00, $00, $00, $68, $90, $C0, $E0, $68, $90, $C0, $E0, $90, $00, $00, $00, $00, $00, $00, $00, $00, $28, $00, $00, $00, $28, $00</v>
       </c>
       <c r="AQ43" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>TopLeftCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A, $0A, $0B, $0B, $0B, $0A, $0B, $0B, $0B, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A, $0A, $0B, $0A, $0A, $0A, $0B, $0A</v>
       </c>
       <c r="AR43" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>TopRightCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A, $0B, $0B, $0B, $0A, $0B, $0B, $0B, $0A, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A, $0A, $0B, $0A, $0A, $0A, $0B, $0A</v>
       </c>
       <c r="AS43" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>MiddleLeftCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A, $0A, $0B, $0B, $0B, $0C, $0B, $0C, $0B, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A, $0A, $0B, $0A, $0A, $0C, $0C, $0A</v>
       </c>
       <c r="AT43" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>MiddleRightCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0B, $0B, $0B, $0A, $0C, $0B, $0C, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0B, $0A, $0A, $0C, $0C, $0A</v>
       </c>
       <c r="AU43" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>BottomLeftCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0B, $0B, $0B, $0A, $0B, $0B, $0B, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0B, $0A, $0A, $0A, $0B, $0A</v>
       </c>
       <c r="AV43" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>BottomRightCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0B, $0B, $0B, $0B, $0B, $0B, $0B, $0B, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0B, $0B, $0A, $0A, $0B, $0B, $0A</v>
       </c>
       <c r="AW43" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v xml:space="preserve"> .byte $, $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $</v>
       </c>
     </row>
@@ -7320,151 +7320,151 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="J44">
-        <f t="shared" si="82"/>
-        <v>2560</v>
-      </c>
-      <c r="K44">
         <f t="shared" si="83"/>
         <v>2560</v>
       </c>
-      <c r="L44">
+      <c r="K44">
         <f t="shared" si="84"/>
         <v>2560</v>
       </c>
-      <c r="M44">
+      <c r="L44">
         <f t="shared" si="85"/>
         <v>2560</v>
       </c>
-      <c r="N44">
+      <c r="M44">
         <f t="shared" si="86"/>
         <v>2560</v>
       </c>
-      <c r="O44">
+      <c r="N44">
         <f t="shared" si="87"/>
         <v>2560</v>
       </c>
+      <c r="O44">
+        <f t="shared" si="88"/>
+        <v>2560</v>
+      </c>
       <c r="P44" t="str">
-        <f t="shared" si="88"/>
-        <v>0A00</v>
-      </c>
-      <c r="Q44" t="str">
         <f t="shared" si="89"/>
         <v>0A00</v>
       </c>
-      <c r="R44" t="str">
+      <c r="Q44" t="str">
         <f t="shared" si="90"/>
         <v>0A00</v>
       </c>
-      <c r="S44" t="str">
+      <c r="R44" t="str">
         <f t="shared" si="91"/>
         <v>0A00</v>
       </c>
-      <c r="T44" t="str">
+      <c r="S44" t="str">
         <f t="shared" si="92"/>
         <v>0A00</v>
       </c>
-      <c r="U44" t="str">
+      <c r="T44" t="str">
         <f t="shared" si="93"/>
         <v>0A00</v>
       </c>
+      <c r="U44" t="str">
+        <f t="shared" si="94"/>
+        <v>0A00</v>
+      </c>
       <c r="V44" t="str">
-        <f t="shared" si="94"/>
-        <v>00</v>
-      </c>
-      <c r="W44" t="str">
         <f t="shared" si="95"/>
         <v>00</v>
       </c>
-      <c r="X44" t="str">
+      <c r="W44" t="str">
         <f t="shared" si="96"/>
         <v>00</v>
       </c>
-      <c r="Y44" t="str">
+      <c r="X44" t="str">
         <f t="shared" si="97"/>
         <v>00</v>
       </c>
-      <c r="Z44" t="str">
+      <c r="Y44" t="str">
         <f t="shared" si="98"/>
         <v>00</v>
       </c>
-      <c r="AA44" t="str">
+      <c r="Z44" t="str">
         <f t="shared" si="99"/>
         <v>00</v>
       </c>
+      <c r="AA44" t="str">
+        <f t="shared" si="100"/>
+        <v>00</v>
+      </c>
       <c r="AB44" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" si="101"/>
         <v>0A</v>
       </c>
       <c r="AC44" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" si="102"/>
         <v>0A</v>
       </c>
       <c r="AD44" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="103"/>
         <v>0A</v>
       </c>
       <c r="AE44" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="104"/>
         <v>0A</v>
       </c>
       <c r="AF44" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="105"/>
         <v>0A</v>
       </c>
       <c r="AG44" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="106"/>
         <v>0A</v>
       </c>
       <c r="AK44" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>TopLeftCharsLSB: .byte $00, $18, $48, $C8, $00, $18, $48, $C8, $C8, $00, $28, $00, $28, $00, $28, $00, $C8, $78, $A8, $D0, $C8, $78, $A8, $D0, $C8, $00, $70, $00, $80, $00, $90, $00, $D8, $10, $00, $00, $D8, $10, $00, $00</v>
       </c>
       <c r="AL44" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>TopRightCharsLSB: .byte $C8, $20, $50, $78, $C8, $20, $50, $78, $78, $00, $30, $00, $40, $00, $50, $00, $58, $70, $A0, $C8, $58, $70, $A0, $C8, $78, $00, $68, $00, $78, $00, $88, $00, $E0, $08, $00, $00, $E0, $08, $00, $00</v>
       </c>
       <c r="AM44" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>MiddleLeftCharsLSB: .byte $08, $28, $58, $C8, $B0, $98, $98, $C0, $C8, $00, $38, $00, $48, $00, $58, $00, $C8, $88, $B8, $D8, $00, $F8, $10, $D8, $C8, $00, $60, $00, $60, $00, $60, $00, $E8, $20, $00, $00, $90, $A8, $00, $00</v>
       </c>
       <c r="AN44" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>MiddleRightCharsLSB: .byte $C8, $30, $60, $80, $A8, $A0, $A0, $B8, $80, $00, $00, $00, $00, $00, $00, $00, $60, $80, $B0, $C8, $08, $F0, $18, $C8, $80, $00, $00, $00, $00, $00, $00, $00, $F0, $18, $00, $00, $98, $A0, $00, $00</v>
       </c>
       <c r="AO44" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>BottomLeftCharsLSB: .byte $10, $38, $68, $88, $10, $38, $68, $88, $88, $00, $00, $00, $00, $00, $00, $00, $C8, $98, $C8, $E8, $C8, $98, $C8, $E8, $88, $00, $00, $00, $00, $00, $00, $00, $F8, $30, $00, $00, $F8, $30, $00, $00</v>
       </c>
       <c r="AP44" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>BottomRightCharsLSB: .byte $C8, $40, $70, $90, $C8, $40, $70, $90, $90, $00, $00, $00, $00, $00, $00, $00, $68, $90, $C0, $E0, $68, $90, $C0, $E0, $90, $00, $00, $00, $00, $00, $00, $00, $00, $28, $00, $00, $00, $28, $00, $00</v>
       </c>
       <c r="AQ44" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>TopLeftCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A, $0A, $0B, $0B, $0B, $0A, $0B, $0B, $0B, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A, $0A, $0B, $0A, $0A, $0A, $0B, $0A, $0A</v>
       </c>
       <c r="AR44" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>TopRightCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A, $0B, $0B, $0B, $0A, $0B, $0B, $0B, $0A, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A, $0A, $0B, $0A, $0A, $0A, $0B, $0A, $0A</v>
       </c>
       <c r="AS44" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>MiddleLeftCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A, $0A, $0B, $0B, $0B, $0C, $0B, $0C, $0B, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A, $0A, $0B, $0A, $0A, $0C, $0C, $0A, $0A</v>
       </c>
       <c r="AT44" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>MiddleRightCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0B, $0B, $0B, $0A, $0C, $0B, $0C, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0B, $0A, $0A, $0C, $0C, $0A, $0A</v>
       </c>
       <c r="AU44" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>BottomLeftCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0B, $0B, $0B, $0A, $0B, $0B, $0B, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0B, $0A, $0A, $0A, $0B, $0A, $0A</v>
       </c>
       <c r="AV44" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>BottomRightCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0B, $0B, $0B, $0B, $0B, $0B, $0B, $0B, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0B, $0B, $0A, $0A, $0B, $0B, $0A, $0A</v>
       </c>
       <c r="AW44" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v xml:space="preserve"> .byte $, $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $</v>
       </c>
     </row>
@@ -7476,73 +7476,285 @@
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="AK45" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" si="70"/>
         <v>TopLeftCharsLSB: .byte $00, $18, $48, $C8, $00, $18, $48, $C8, $C8, $00, $28, $00, $28, $00, $28, $00, $C8, $78, $A8, $D0, $C8, $78, $A8, $D0, $C8, $00, $70, $00, $80, $00, $90, $00, $D8, $10, $00, $00, $D8, $10, $00, $00, $</v>
       </c>
       <c r="AL45" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" si="71"/>
         <v>TopRightCharsLSB: .byte $C8, $20, $50, $78, $C8, $20, $50, $78, $78, $00, $30, $00, $40, $00, $50, $00, $58, $70, $A0, $C8, $58, $70, $A0, $C8, $78, $00, $68, $00, $78, $00, $88, $00, $E0, $08, $00, $00, $E0, $08, $00, $00, $</v>
       </c>
       <c r="AM45" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" si="72"/>
         <v>MiddleLeftCharsLSB: .byte $08, $28, $58, $C8, $B0, $98, $98, $C0, $C8, $00, $38, $00, $48, $00, $58, $00, $C8, $88, $B8, $D8, $00, $F8, $10, $D8, $C8, $00, $60, $00, $60, $00, $60, $00, $E8, $20, $00, $00, $90, $A8, $00, $00, $</v>
       </c>
       <c r="AN45" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>MiddleRightCharsLSB: .byte $C8, $30, $60, $80, $A8, $A0, $A0, $B8, $80, $00, $00, $00, $00, $00, $00, $00, $60, $80, $B0, $C8, $08, $F0, $18, $C8, $80, $00, $00, $00, $00, $00, $00, $00, $F0, $18, $00, $00, $98, $A0, $00, $00, $</v>
       </c>
       <c r="AO45" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>BottomLeftCharsLSB: .byte $10, $38, $68, $88, $10, $38, $68, $88, $88, $00, $00, $00, $00, $00, $00, $00, $C8, $98, $C8, $E8, $C8, $98, $C8, $E8, $88, $00, $00, $00, $00, $00, $00, $00, $F8, $30, $00, $00, $F8, $30, $00, $00, $</v>
       </c>
       <c r="AP45" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" si="75"/>
         <v>BottomRightCharsLSB: .byte $C8, $40, $70, $90, $C8, $40, $70, $90, $90, $00, $00, $00, $00, $00, $00, $00, $68, $90, $C0, $E0, $68, $90, $C0, $E0, $90, $00, $00, $00, $00, $00, $00, $00, $00, $28, $00, $00, $00, $28, $00, $00, $</v>
       </c>
       <c r="AQ45" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" si="76"/>
         <v>TopLeftCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A, $0A, $0B, $0B, $0B, $0A, $0B, $0B, $0B, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A, $0A, $0B, $0A, $0A, $0A, $0B, $0A, $0A, $</v>
       </c>
       <c r="AR45" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>TopRightCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A, $0B, $0B, $0B, $0A, $0B, $0B, $0B, $0A, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A, $0A, $0B, $0A, $0A, $0A, $0B, $0A, $0A, $</v>
       </c>
       <c r="AS45" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>MiddleLeftCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A, $0A, $0B, $0B, $0B, $0C, $0B, $0C, $0B, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A, $0A, $0B, $0A, $0A, $0C, $0C, $0A, $0A, $</v>
       </c>
       <c r="AT45" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>MiddleRightCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0B, $0B, $0B, $0A, $0C, $0B, $0C, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0B, $0A, $0A, $0C, $0C, $0A, $0A, $</v>
       </c>
       <c r="AU45" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" si="80"/>
         <v>BottomLeftCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0B, $0B, $0B, $0A, $0B, $0B, $0B, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0B, $0A, $0A, $0A, $0B, $0A, $0A, $</v>
       </c>
       <c r="AV45" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" si="81"/>
         <v>BottomRightCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0B, $0B, $0B, $0B, $0B, $0B, $0B, $0B, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0B, $0B, $0A, $0A, $0B, $0B, $0A, $0A, $</v>
       </c>
       <c r="AW45" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" si="82"/>
         <v xml:space="preserve"> .byte $, $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $</v>
       </c>
     </row>
     <row r="46" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
+      <c r="C46" s="2">
+        <v>181</v>
+      </c>
+      <c r="D46" s="2">
+        <v>182</v>
+      </c>
+      <c r="E46" s="2">
+        <v>183</v>
+      </c>
+      <c r="F46" s="2">
+        <v>184</v>
+      </c>
+      <c r="G46" s="2">
+        <v>185</v>
+      </c>
+      <c r="H46" s="2">
+        <v>186</v>
+      </c>
+      <c r="J46">
+        <f t="shared" ref="J46" si="107">(C46*8)+2560</f>
+        <v>4008</v>
+      </c>
+      <c r="K46">
+        <f t="shared" ref="K46" si="108">(D46*8)+2560</f>
+        <v>4016</v>
+      </c>
+      <c r="L46">
+        <f t="shared" ref="L46" si="109">(E46*8)+2560</f>
+        <v>4024</v>
+      </c>
+      <c r="M46">
+        <f t="shared" ref="M46" si="110">(F46*8)+2560</f>
+        <v>4032</v>
+      </c>
+      <c r="N46">
+        <f t="shared" ref="N46" si="111">(G46*8)+2560</f>
+        <v>4040</v>
+      </c>
+      <c r="O46">
+        <f t="shared" ref="O46" si="112">(H46*8)+2560</f>
+        <v>4048</v>
+      </c>
+      <c r="P46" t="str">
+        <f t="shared" ref="P46" si="113">DEC2HEX(J46,4)</f>
+        <v>0FA8</v>
+      </c>
+      <c r="Q46" t="str">
+        <f t="shared" ref="Q46" si="114">DEC2HEX(K46,4)</f>
+        <v>0FB0</v>
+      </c>
+      <c r="R46" t="str">
+        <f t="shared" ref="R46" si="115">DEC2HEX(L46,4)</f>
+        <v>0FB8</v>
+      </c>
+      <c r="S46" t="str">
+        <f t="shared" ref="S46" si="116">DEC2HEX(M46,4)</f>
+        <v>0FC0</v>
+      </c>
+      <c r="T46" t="str">
+        <f t="shared" ref="T46" si="117">DEC2HEX(N46,4)</f>
+        <v>0FC8</v>
+      </c>
+      <c r="U46" t="str">
+        <f t="shared" ref="U46" si="118">DEC2HEX(O46,4)</f>
+        <v>0FD0</v>
+      </c>
+      <c r="V46" t="str">
+        <f t="shared" ref="V46" si="119">RIGHT(P46,2)</f>
+        <v>A8</v>
+      </c>
+      <c r="W46" t="str">
+        <f t="shared" ref="W46" si="120">RIGHT(Q46,2)</f>
+        <v>B0</v>
+      </c>
+      <c r="X46" t="str">
+        <f t="shared" ref="X46" si="121">RIGHT(R46,2)</f>
+        <v>B8</v>
+      </c>
+      <c r="Y46" t="str">
+        <f t="shared" ref="Y46" si="122">RIGHT(S46,2)</f>
+        <v>C0</v>
+      </c>
+      <c r="Z46" t="str">
+        <f t="shared" ref="Z46" si="123">RIGHT(T46,2)</f>
+        <v>C8</v>
+      </c>
+      <c r="AA46" t="str">
+        <f t="shared" ref="AA46" si="124">RIGHT(U46,2)</f>
+        <v>D0</v>
+      </c>
+      <c r="AB46" t="str">
+        <f t="shared" ref="AB46" si="125">LEFT(P46,2)</f>
+        <v>0F</v>
+      </c>
+      <c r="AC46" t="str">
+        <f t="shared" ref="AC46" si="126">LEFT(Q46,2)</f>
+        <v>0F</v>
+      </c>
+      <c r="AD46" t="str">
+        <f t="shared" ref="AD46" si="127">LEFT(R46,2)</f>
+        <v>0F</v>
+      </c>
+      <c r="AE46" t="str">
+        <f t="shared" ref="AE46" si="128">LEFT(S46,2)</f>
+        <v>0F</v>
+      </c>
+      <c r="AF46" t="str">
+        <f t="shared" ref="AF46" si="129">LEFT(T46,2)</f>
+        <v>0F</v>
+      </c>
+      <c r="AG46" t="str">
+        <f t="shared" ref="AG46" si="130">LEFT(U46,2)</f>
+        <v>0F</v>
+      </c>
     </row>
     <row r="47" spans="1:49" x14ac:dyDescent="0.25">
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
+      <c r="C47" s="2">
+        <v>187</v>
+      </c>
+      <c r="D47" s="2">
+        <v>188</v>
+      </c>
+      <c r="E47" s="2">
+        <v>189</v>
+      </c>
+      <c r="F47" s="2">
+        <v>190</v>
+      </c>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
+      <c r="J47">
+        <f t="shared" ref="J47" si="131">(C47*8)+2560</f>
+        <v>4056</v>
+      </c>
+      <c r="K47">
+        <f t="shared" ref="K47" si="132">(D47*8)+2560</f>
+        <v>4064</v>
+      </c>
+      <c r="L47">
+        <f t="shared" ref="L47" si="133">(E47*8)+2560</f>
+        <v>4072</v>
+      </c>
+      <c r="M47">
+        <f t="shared" ref="M47" si="134">(F47*8)+2560</f>
+        <v>4080</v>
+      </c>
+      <c r="N47">
+        <f t="shared" ref="N47" si="135">(G47*8)+2560</f>
+        <v>2560</v>
+      </c>
+      <c r="O47">
+        <f t="shared" ref="O47" si="136">(H47*8)+2560</f>
+        <v>2560</v>
+      </c>
+      <c r="P47" t="str">
+        <f t="shared" ref="P47" si="137">DEC2HEX(J47,4)</f>
+        <v>0FD8</v>
+      </c>
+      <c r="Q47" t="str">
+        <f t="shared" ref="Q47" si="138">DEC2HEX(K47,4)</f>
+        <v>0FE0</v>
+      </c>
+      <c r="R47" t="str">
+        <f t="shared" ref="R47" si="139">DEC2HEX(L47,4)</f>
+        <v>0FE8</v>
+      </c>
+      <c r="S47" t="str">
+        <f t="shared" ref="S47" si="140">DEC2HEX(M47,4)</f>
+        <v>0FF0</v>
+      </c>
+      <c r="T47" t="str">
+        <f t="shared" ref="T47" si="141">DEC2HEX(N47,4)</f>
+        <v>0A00</v>
+      </c>
+      <c r="U47" t="str">
+        <f t="shared" ref="U47" si="142">DEC2HEX(O47,4)</f>
+        <v>0A00</v>
+      </c>
+      <c r="V47" t="str">
+        <f t="shared" ref="V47" si="143">RIGHT(P47,2)</f>
+        <v>D8</v>
+      </c>
+      <c r="W47" t="str">
+        <f t="shared" ref="W47" si="144">RIGHT(Q47,2)</f>
+        <v>E0</v>
+      </c>
+      <c r="X47" t="str">
+        <f t="shared" ref="X47" si="145">RIGHT(R47,2)</f>
+        <v>E8</v>
+      </c>
+      <c r="Y47" t="str">
+        <f t="shared" ref="Y47" si="146">RIGHT(S47,2)</f>
+        <v>F0</v>
+      </c>
+      <c r="Z47" t="str">
+        <f t="shared" ref="Z47" si="147">RIGHT(T47,2)</f>
+        <v>00</v>
+      </c>
+      <c r="AA47" t="str">
+        <f t="shared" ref="AA47" si="148">RIGHT(U47,2)</f>
+        <v>00</v>
+      </c>
+      <c r="AB47" t="str">
+        <f t="shared" ref="AB47" si="149">LEFT(P47,2)</f>
+        <v>0F</v>
+      </c>
+      <c r="AC47" t="str">
+        <f t="shared" ref="AC47" si="150">LEFT(Q47,2)</f>
+        <v>0F</v>
+      </c>
+      <c r="AD47" t="str">
+        <f t="shared" ref="AD47" si="151">LEFT(R47,2)</f>
+        <v>0F</v>
+      </c>
+      <c r="AE47" t="str">
+        <f t="shared" ref="AE47" si="152">LEFT(S47,2)</f>
+        <v>0F</v>
+      </c>
+      <c r="AF47" t="str">
+        <f t="shared" ref="AF47" si="153">LEFT(T47,2)</f>
+        <v>0A</v>
+      </c>
+      <c r="AG47" t="str">
+        <f t="shared" ref="AG47" si="154">LEFT(U47,2)</f>
+        <v>0A</v>
+      </c>
       <c r="AJ47">
         <v>1</v>
       </c>
@@ -7622,51 +7834,51 @@
         <v>5</v>
       </c>
       <c r="V49" s="1" t="str">
-        <f>C49&amp;$X$3</f>
+        <f t="shared" ref="V49:AA49" si="155">C49&amp;$X$3</f>
         <v>TopLeftLSB</v>
       </c>
       <c r="W49" s="1" t="str">
-        <f>D49&amp;$X$3</f>
+        <f t="shared" si="155"/>
         <v>TopRightLSB</v>
       </c>
       <c r="X49" s="1" t="str">
-        <f>E49&amp;$X$3</f>
+        <f t="shared" si="155"/>
         <v>MiddleLeftLSB</v>
       </c>
       <c r="Y49" s="1" t="str">
-        <f>F49&amp;$X$3</f>
+        <f t="shared" si="155"/>
         <v>MiddleRightLSB</v>
       </c>
       <c r="Z49" s="1" t="str">
-        <f>G49&amp;$X$3</f>
+        <f t="shared" si="155"/>
         <v>BottomLeftLSB</v>
       </c>
       <c r="AA49" s="1" t="str">
-        <f>H49&amp;$X$3</f>
+        <f t="shared" si="155"/>
         <v>BottomRightLSB</v>
       </c>
       <c r="AB49" s="1" t="str">
-        <f>C49&amp;$AD$3</f>
+        <f t="shared" ref="AB49:AG49" si="156">C49&amp;$AD$3</f>
         <v>TopLeftMSB</v>
       </c>
       <c r="AC49" s="1" t="str">
-        <f>D49&amp;$AD$3</f>
+        <f t="shared" si="156"/>
         <v>TopRightMSB</v>
       </c>
       <c r="AD49" s="1" t="str">
-        <f>E49&amp;$AD$3</f>
+        <f t="shared" si="156"/>
         <v>MiddleLeftMSB</v>
       </c>
       <c r="AE49" s="1" t="str">
-        <f>F49&amp;$AD$3</f>
+        <f t="shared" si="156"/>
         <v>MiddleRightMSB</v>
       </c>
       <c r="AF49" s="1" t="str">
-        <f>G49&amp;$AD$3</f>
+        <f t="shared" si="156"/>
         <v>BottomLeftMSB</v>
       </c>
       <c r="AG49" s="1" t="str">
-        <f>H49&amp;$AD$3</f>
+        <f t="shared" si="156"/>
         <v>BottomRightMSB</v>
       </c>
       <c r="AJ49">
@@ -7700,27 +7912,27 @@
         <v>5</v>
       </c>
       <c r="J50">
-        <f>(C50*8)+2560</f>
+        <f t="shared" ref="J50:O52" si="157">(C50*8)+2560</f>
         <v>2560</v>
       </c>
       <c r="K50">
-        <f>(D50*8)+2560</f>
+        <f t="shared" si="157"/>
         <v>2568</v>
       </c>
       <c r="L50">
-        <f>(E50*8)+2560</f>
+        <f t="shared" si="157"/>
         <v>2576</v>
       </c>
       <c r="M50">
-        <f>(F50*8)+2560</f>
+        <f t="shared" si="157"/>
         <v>2584</v>
       </c>
       <c r="N50">
-        <f>(G50*8)+2560</f>
+        <f t="shared" si="157"/>
         <v>2592</v>
       </c>
       <c r="O50">
-        <f>(H50*8)+2560</f>
+        <f t="shared" si="157"/>
         <v>2600</v>
       </c>
       <c r="P50" t="str">
@@ -7728,19 +7940,19 @@
         <v>0A00</v>
       </c>
       <c r="Q50" t="str">
-        <f t="shared" ref="Q50:Q79" si="106">DEC2HEX(K50,4)</f>
+        <f t="shared" ref="Q50:Q79" si="158">DEC2HEX(K50,4)</f>
         <v>0A08</v>
       </c>
       <c r="R50" t="str">
-        <f t="shared" ref="R50:R79" si="107">DEC2HEX(L50,4)</f>
+        <f t="shared" ref="R50:R79" si="159">DEC2HEX(L50,4)</f>
         <v>0A10</v>
       </c>
       <c r="S50" t="str">
-        <f t="shared" ref="S50:S71" si="108">DEC2HEX(M50,4)</f>
+        <f t="shared" ref="S50:S71" si="160">DEC2HEX(M50,4)</f>
         <v>0A18</v>
       </c>
       <c r="T50" t="str">
-        <f t="shared" ref="T50:T79" si="109">DEC2HEX(N50,4)</f>
+        <f t="shared" ref="T50:T79" si="161">DEC2HEX(N50,4)</f>
         <v>0A20</v>
       </c>
       <c r="U50" t="str">
@@ -7748,27 +7960,27 @@
         <v>0A28</v>
       </c>
       <c r="V50" t="str">
-        <f t="shared" ref="V50:V79" si="110">RIGHT(P50,2)</f>
+        <f t="shared" ref="V50:V79" si="162">RIGHT(P50,2)</f>
         <v>00</v>
       </c>
       <c r="W50" t="str">
-        <f t="shared" ref="W50:W79" si="111">RIGHT(Q50,2)</f>
+        <f t="shared" ref="W50:W79" si="163">RIGHT(Q50,2)</f>
         <v>08</v>
       </c>
       <c r="X50" t="str">
-        <f t="shared" ref="X50:X79" si="112">RIGHT(R50,2)</f>
+        <f t="shared" ref="X50:X79" si="164">RIGHT(R50,2)</f>
         <v>10</v>
       </c>
       <c r="Y50" t="str">
-        <f t="shared" ref="Y50:Y79" si="113">RIGHT(S50,2)</f>
+        <f t="shared" ref="Y50:Y79" si="165">RIGHT(S50,2)</f>
         <v>18</v>
       </c>
       <c r="Z50" t="str">
-        <f t="shared" ref="Z50:Z79" si="114">RIGHT(T50,2)</f>
+        <f t="shared" ref="Z50:Z79" si="166">RIGHT(T50,2)</f>
         <v>20</v>
       </c>
       <c r="AA50" t="str">
-        <f t="shared" ref="AA50:AA79" si="115">RIGHT(U50,2)</f>
+        <f t="shared" ref="AA50:AA79" si="167">RIGHT(U50,2)</f>
         <v>28</v>
       </c>
       <c r="AB50" t="str">
@@ -7776,23 +7988,23 @@
         <v>0A</v>
       </c>
       <c r="AC50" t="str">
-        <f t="shared" ref="AC50:AC79" si="116">LEFT(Q50,2)</f>
+        <f t="shared" ref="AC50:AC79" si="168">LEFT(Q50,2)</f>
         <v>0A</v>
       </c>
       <c r="AD50" t="str">
-        <f t="shared" ref="AD50:AD79" si="117">LEFT(R50,2)</f>
+        <f t="shared" ref="AD50:AD79" si="169">LEFT(R50,2)</f>
         <v>0A</v>
       </c>
       <c r="AE50" t="str">
-        <f t="shared" ref="AE50:AE79" si="118">LEFT(S50,2)</f>
+        <f t="shared" ref="AE50:AE79" si="170">LEFT(S50,2)</f>
         <v>0A</v>
       </c>
       <c r="AF50" t="str">
-        <f t="shared" ref="AF50:AF79" si="119">LEFT(T50,2)</f>
+        <f t="shared" ref="AF50:AF79" si="171">LEFT(T50,2)</f>
         <v>0A</v>
       </c>
       <c r="AG50" t="str">
-        <f t="shared" ref="AG50:AG79" si="120">LEFT(U50,2)</f>
+        <f t="shared" ref="AG50:AG79" si="172">LEFT(U50,2)</f>
         <v>0A</v>
       </c>
       <c r="AJ50">
@@ -7826,99 +8038,99 @@
         <v>17</v>
       </c>
       <c r="J51">
-        <f>(C51*8)+2560</f>
+        <f t="shared" si="157"/>
         <v>2656</v>
       </c>
       <c r="K51">
-        <f>(D51*8)+2560</f>
+        <f t="shared" si="157"/>
         <v>2664</v>
       </c>
       <c r="L51">
-        <f>(E51*8)+2560</f>
+        <f t="shared" si="157"/>
         <v>2672</v>
       </c>
       <c r="M51">
-        <f>(F51*8)+2560</f>
+        <f t="shared" si="157"/>
         <v>2680</v>
       </c>
       <c r="N51">
-        <f>(G51*8)+2560</f>
+        <f t="shared" si="157"/>
         <v>2688</v>
       </c>
       <c r="O51">
-        <f>(H51*8)+2560</f>
+        <f t="shared" si="157"/>
         <v>2696</v>
       </c>
       <c r="P51" t="str">
-        <f t="shared" ref="P51:P79" si="121">DEC2HEX(J51,4)</f>
+        <f t="shared" ref="P51:P79" si="173">DEC2HEX(J51,4)</f>
         <v>0A60</v>
       </c>
       <c r="Q51" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="158"/>
         <v>0A68</v>
       </c>
       <c r="R51" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="159"/>
         <v>0A70</v>
       </c>
       <c r="S51" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="160"/>
         <v>0A78</v>
       </c>
       <c r="T51" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="161"/>
         <v>0A80</v>
       </c>
       <c r="U51" t="str">
-        <f t="shared" ref="U51:U79" si="122">DEC2HEX(O51,4)</f>
+        <f t="shared" ref="U51:U79" si="174">DEC2HEX(O51,4)</f>
         <v>0A88</v>
       </c>
       <c r="V51" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="162"/>
         <v>60</v>
       </c>
       <c r="W51" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="163"/>
         <v>68</v>
       </c>
       <c r="X51" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="164"/>
         <v>70</v>
       </c>
       <c r="Y51" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="165"/>
         <v>78</v>
       </c>
       <c r="Z51" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="166"/>
         <v>80</v>
       </c>
       <c r="AA51" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="167"/>
         <v>88</v>
       </c>
       <c r="AB51" t="str">
-        <f t="shared" ref="AB51:AB79" si="123">LEFT(P51,2)</f>
+        <f t="shared" ref="AB51:AB79" si="175">LEFT(P51,2)</f>
         <v>0A</v>
       </c>
       <c r="AC51" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="168"/>
         <v>0A</v>
       </c>
       <c r="AD51" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="169"/>
         <v>0A</v>
       </c>
       <c r="AE51" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="170"/>
         <v>0A</v>
       </c>
       <c r="AF51" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="171"/>
         <v>0A</v>
       </c>
       <c r="AG51" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="172"/>
         <v>0A</v>
       </c>
       <c r="AJ51">
@@ -7952,99 +8164,99 @@
         <v>11</v>
       </c>
       <c r="J52">
-        <f>(C52*8)+2560</f>
+        <f t="shared" si="157"/>
         <v>2608</v>
       </c>
       <c r="K52">
-        <f>(D52*8)+2560</f>
+        <f t="shared" si="157"/>
         <v>2616</v>
       </c>
       <c r="L52">
-        <f>(E52*8)+2560</f>
+        <f t="shared" si="157"/>
         <v>2624</v>
       </c>
       <c r="M52">
-        <f>(F52*8)+2560</f>
+        <f t="shared" si="157"/>
         <v>2632</v>
       </c>
       <c r="N52">
-        <f>(G52*8)+2560</f>
+        <f t="shared" si="157"/>
         <v>2640</v>
       </c>
       <c r="O52">
-        <f>(H52*8)+2560</f>
+        <f t="shared" si="157"/>
         <v>2648</v>
       </c>
       <c r="P52" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="173"/>
         <v>0A30</v>
       </c>
       <c r="Q52" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="158"/>
         <v>0A38</v>
       </c>
       <c r="R52" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="159"/>
         <v>0A40</v>
       </c>
       <c r="S52" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="160"/>
         <v>0A48</v>
       </c>
       <c r="T52" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="161"/>
         <v>0A50</v>
       </c>
       <c r="U52" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="174"/>
         <v>0A58</v>
       </c>
       <c r="V52" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="162"/>
         <v>30</v>
       </c>
       <c r="W52" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="163"/>
         <v>38</v>
       </c>
       <c r="X52" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="164"/>
         <v>40</v>
       </c>
       <c r="Y52" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="165"/>
         <v>48</v>
       </c>
       <c r="Z52" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="166"/>
         <v>50</v>
       </c>
       <c r="AA52" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="167"/>
         <v>58</v>
       </c>
       <c r="AB52" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="175"/>
         <v>0A</v>
       </c>
       <c r="AC52" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="168"/>
         <v>0A</v>
       </c>
       <c r="AD52" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="169"/>
         <v>0A</v>
       </c>
       <c r="AE52" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="170"/>
         <v>0A</v>
       </c>
       <c r="AF52" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="171"/>
         <v>0A</v>
       </c>
       <c r="AG52" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="172"/>
         <v>0A</v>
       </c>
       <c r="AJ52">
@@ -8078,99 +8290,99 @@
         <v>22</v>
       </c>
       <c r="J53">
-        <f t="shared" ref="J53:J79" si="124">(C53*8)+2560</f>
+        <f t="shared" ref="J53:J79" si="176">(C53*8)+2560</f>
         <v>2712</v>
       </c>
       <c r="K53">
-        <f t="shared" ref="K53:K79" si="125">(D53*8)+2560</f>
+        <f t="shared" ref="K53:K79" si="177">(D53*8)+2560</f>
         <v>2704</v>
       </c>
       <c r="L53">
-        <f t="shared" ref="L53:L79" si="126">(E53*8)+2560</f>
+        <f t="shared" ref="L53:L79" si="178">(E53*8)+2560</f>
         <v>3232</v>
       </c>
       <c r="M53">
-        <f t="shared" ref="M53:M79" si="127">(F53*8)+2560</f>
+        <f t="shared" ref="M53:M79" si="179">(F53*8)+2560</f>
         <v>2720</v>
       </c>
       <c r="N53">
-        <f t="shared" ref="N53:N79" si="128">(G53*8)+2560</f>
+        <f t="shared" ref="N53:N79" si="180">(G53*8)+2560</f>
         <v>2728</v>
       </c>
       <c r="O53">
-        <f t="shared" ref="O53:O79" si="129">(H53*8)+2560</f>
+        <f t="shared" ref="O53:O79" si="181">(H53*8)+2560</f>
         <v>2736</v>
       </c>
       <c r="P53" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="173"/>
         <v>0A98</v>
       </c>
       <c r="Q53" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="158"/>
         <v>0A90</v>
       </c>
       <c r="R53" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="159"/>
         <v>0CA0</v>
       </c>
       <c r="S53" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="160"/>
         <v>0AA0</v>
       </c>
       <c r="T53" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="161"/>
         <v>0AA8</v>
       </c>
       <c r="U53" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="174"/>
         <v>0AB0</v>
       </c>
       <c r="V53" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="162"/>
         <v>98</v>
       </c>
       <c r="W53" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="163"/>
         <v>90</v>
       </c>
       <c r="X53" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="164"/>
         <v>A0</v>
       </c>
       <c r="Y53" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="165"/>
         <v>A0</v>
       </c>
       <c r="Z53" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="166"/>
         <v>A8</v>
       </c>
       <c r="AA53" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="167"/>
         <v>B0</v>
       </c>
       <c r="AB53" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="175"/>
         <v>0A</v>
       </c>
       <c r="AC53" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="168"/>
         <v>0A</v>
       </c>
       <c r="AD53" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="169"/>
         <v>0C</v>
       </c>
       <c r="AE53" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="170"/>
         <v>0A</v>
       </c>
       <c r="AF53" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="171"/>
         <v>0A</v>
       </c>
       <c r="AG53" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="172"/>
         <v>0A</v>
       </c>
       <c r="AJ53">
@@ -8204,99 +8416,99 @@
         <v>5</v>
       </c>
       <c r="J54">
-        <f t="shared" si="124"/>
+        <f t="shared" si="176"/>
         <v>2560</v>
       </c>
       <c r="K54">
-        <f t="shared" si="125"/>
+        <f t="shared" si="177"/>
         <v>2568</v>
       </c>
       <c r="L54">
-        <f t="shared" si="126"/>
+        <f t="shared" si="178"/>
         <v>2744</v>
       </c>
       <c r="M54">
-        <f t="shared" si="127"/>
+        <f t="shared" si="179"/>
         <v>2752</v>
       </c>
       <c r="N54">
-        <f t="shared" si="128"/>
+        <f t="shared" si="180"/>
         <v>2592</v>
       </c>
       <c r="O54">
-        <f t="shared" si="129"/>
+        <f t="shared" si="181"/>
         <v>2600</v>
       </c>
       <c r="P54" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="173"/>
         <v>0A00</v>
       </c>
       <c r="Q54" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="158"/>
         <v>0A08</v>
       </c>
       <c r="R54" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="159"/>
         <v>0AB8</v>
       </c>
       <c r="S54" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="160"/>
         <v>0AC0</v>
       </c>
       <c r="T54" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="161"/>
         <v>0A20</v>
       </c>
       <c r="U54" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="174"/>
         <v>0A28</v>
       </c>
       <c r="V54" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="162"/>
         <v>00</v>
       </c>
       <c r="W54" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="163"/>
         <v>08</v>
       </c>
       <c r="X54" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="164"/>
         <v>B8</v>
       </c>
       <c r="Y54" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="165"/>
         <v>C0</v>
       </c>
       <c r="Z54" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="166"/>
         <v>20</v>
       </c>
       <c r="AA54" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="167"/>
         <v>28</v>
       </c>
       <c r="AB54" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="175"/>
         <v>0A</v>
       </c>
       <c r="AC54" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="168"/>
         <v>0A</v>
       </c>
       <c r="AD54" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="169"/>
         <v>0A</v>
       </c>
       <c r="AE54" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="170"/>
         <v>0A</v>
       </c>
       <c r="AF54" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="171"/>
         <v>0A</v>
       </c>
       <c r="AG54" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="172"/>
         <v>0A</v>
       </c>
       <c r="AJ54">
@@ -8330,99 +8542,99 @@
         <v>17</v>
       </c>
       <c r="J55">
-        <f t="shared" si="124"/>
+        <f t="shared" si="176"/>
         <v>2656</v>
       </c>
       <c r="K55">
-        <f t="shared" si="125"/>
+        <f t="shared" si="177"/>
         <v>2664</v>
       </c>
       <c r="L55">
-        <f t="shared" si="126"/>
+        <f t="shared" si="178"/>
         <v>2776</v>
       </c>
       <c r="M55">
-        <f t="shared" si="127"/>
+        <f t="shared" si="179"/>
         <v>2784</v>
       </c>
       <c r="N55">
-        <f t="shared" si="128"/>
+        <f t="shared" si="180"/>
         <v>2688</v>
       </c>
       <c r="O55">
-        <f t="shared" si="129"/>
+        <f t="shared" si="181"/>
         <v>2696</v>
       </c>
       <c r="P55" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="173"/>
         <v>0A60</v>
       </c>
       <c r="Q55" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="158"/>
         <v>0A68</v>
       </c>
       <c r="R55" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="159"/>
         <v>0AD8</v>
       </c>
       <c r="S55" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="160"/>
         <v>0AE0</v>
       </c>
       <c r="T55" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="161"/>
         <v>0A80</v>
       </c>
       <c r="U55" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="174"/>
         <v>0A88</v>
       </c>
       <c r="V55" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="162"/>
         <v>60</v>
       </c>
       <c r="W55" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="163"/>
         <v>68</v>
       </c>
       <c r="X55" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="164"/>
         <v>D8</v>
       </c>
       <c r="Y55" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="165"/>
         <v>E0</v>
       </c>
       <c r="Z55" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="166"/>
         <v>80</v>
       </c>
       <c r="AA55" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="167"/>
         <v>88</v>
       </c>
       <c r="AB55" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="175"/>
         <v>0A</v>
       </c>
       <c r="AC55" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="168"/>
         <v>0A</v>
       </c>
       <c r="AD55" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="169"/>
         <v>0A</v>
       </c>
       <c r="AE55" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="170"/>
         <v>0A</v>
       </c>
       <c r="AF55" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="171"/>
         <v>0A</v>
       </c>
       <c r="AG55" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="172"/>
         <v>0A</v>
       </c>
       <c r="AJ55">
@@ -8456,99 +8668,99 @@
         <v>11</v>
       </c>
       <c r="J56">
-        <f t="shared" si="124"/>
+        <f t="shared" si="176"/>
         <v>2608</v>
       </c>
       <c r="K56">
-        <f t="shared" si="125"/>
+        <f t="shared" si="177"/>
         <v>2616</v>
       </c>
       <c r="L56">
-        <f t="shared" si="126"/>
+        <f t="shared" si="178"/>
         <v>2760</v>
       </c>
       <c r="M56">
-        <f t="shared" si="127"/>
+        <f t="shared" si="179"/>
         <v>2768</v>
       </c>
       <c r="N56">
-        <f t="shared" si="128"/>
+        <f t="shared" si="180"/>
         <v>2640</v>
       </c>
       <c r="O56">
-        <f t="shared" si="129"/>
+        <f t="shared" si="181"/>
         <v>2648</v>
       </c>
       <c r="P56" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="173"/>
         <v>0A30</v>
       </c>
       <c r="Q56" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="158"/>
         <v>0A38</v>
       </c>
       <c r="R56" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="159"/>
         <v>0AC8</v>
       </c>
       <c r="S56" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="160"/>
         <v>0AD0</v>
       </c>
       <c r="T56" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="161"/>
         <v>0A50</v>
       </c>
       <c r="U56" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="174"/>
         <v>0A58</v>
       </c>
       <c r="V56" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="162"/>
         <v>30</v>
       </c>
       <c r="W56" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="163"/>
         <v>38</v>
       </c>
       <c r="X56" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="164"/>
         <v>C8</v>
       </c>
       <c r="Y56" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="165"/>
         <v>D0</v>
       </c>
       <c r="Z56" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="166"/>
         <v>50</v>
       </c>
       <c r="AA56" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="167"/>
         <v>58</v>
       </c>
       <c r="AB56" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="175"/>
         <v>0A</v>
       </c>
       <c r="AC56" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="168"/>
         <v>0A</v>
       </c>
       <c r="AD56" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="169"/>
         <v>0A</v>
       </c>
       <c r="AE56" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="170"/>
         <v>0A</v>
       </c>
       <c r="AF56" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="171"/>
         <v>0A</v>
       </c>
       <c r="AG56" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="172"/>
         <v>0A</v>
       </c>
       <c r="AJ56">
@@ -8582,99 +8794,99 @@
         <v>22</v>
       </c>
       <c r="J57">
-        <f t="shared" si="124"/>
+        <f t="shared" si="176"/>
         <v>2712</v>
       </c>
       <c r="K57">
-        <f t="shared" si="125"/>
+        <f t="shared" si="177"/>
         <v>2704</v>
       </c>
       <c r="L57">
-        <f t="shared" si="126"/>
+        <f t="shared" si="178"/>
         <v>3224</v>
       </c>
       <c r="M57">
-        <f t="shared" si="127"/>
+        <f t="shared" si="179"/>
         <v>2792</v>
       </c>
       <c r="N57">
-        <f t="shared" si="128"/>
+        <f t="shared" si="180"/>
         <v>2728</v>
       </c>
       <c r="O57">
-        <f t="shared" si="129"/>
+        <f t="shared" si="181"/>
         <v>2736</v>
       </c>
       <c r="P57" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="173"/>
         <v>0A98</v>
       </c>
       <c r="Q57" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="158"/>
         <v>0A90</v>
       </c>
       <c r="R57" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="159"/>
         <v>0C98</v>
       </c>
       <c r="S57" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="160"/>
         <v>0AE8</v>
       </c>
       <c r="T57" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="161"/>
         <v>0AA8</v>
       </c>
       <c r="U57" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="174"/>
         <v>0AB0</v>
       </c>
       <c r="V57" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="162"/>
         <v>98</v>
       </c>
       <c r="W57" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="163"/>
         <v>90</v>
       </c>
       <c r="X57" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="164"/>
         <v>98</v>
       </c>
       <c r="Y57" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="165"/>
         <v>E8</v>
       </c>
       <c r="Z57" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="166"/>
         <v>A8</v>
       </c>
       <c r="AA57" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="167"/>
         <v>B0</v>
       </c>
       <c r="AB57" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="175"/>
         <v>0A</v>
       </c>
       <c r="AC57" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="168"/>
         <v>0A</v>
       </c>
       <c r="AD57" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="169"/>
         <v>0C</v>
       </c>
       <c r="AE57" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="170"/>
         <v>0A</v>
       </c>
       <c r="AF57" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="171"/>
         <v>0A</v>
       </c>
       <c r="AG57" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="172"/>
         <v>0A</v>
       </c>
       <c r="AJ57">
@@ -8708,99 +8920,99 @@
         <v>5</v>
       </c>
       <c r="J58">
-        <f t="shared" si="124"/>
+        <f t="shared" si="176"/>
         <v>2560</v>
       </c>
       <c r="K58">
-        <f t="shared" si="125"/>
+        <f t="shared" si="177"/>
         <v>2568</v>
       </c>
       <c r="L58">
-        <f t="shared" si="126"/>
+        <f t="shared" si="178"/>
         <v>2576</v>
       </c>
       <c r="M58">
-        <f t="shared" si="127"/>
+        <f t="shared" si="179"/>
         <v>2808</v>
       </c>
       <c r="N58">
-        <f t="shared" si="128"/>
+        <f t="shared" si="180"/>
         <v>2592</v>
       </c>
       <c r="O58">
-        <f t="shared" si="129"/>
+        <f t="shared" si="181"/>
         <v>2600</v>
       </c>
       <c r="P58" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="173"/>
         <v>0A00</v>
       </c>
       <c r="Q58" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="158"/>
         <v>0A08</v>
       </c>
       <c r="R58" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="159"/>
         <v>0A10</v>
       </c>
       <c r="S58" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="160"/>
         <v>0AF8</v>
       </c>
       <c r="T58" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="161"/>
         <v>0A20</v>
       </c>
       <c r="U58" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="174"/>
         <v>0A28</v>
       </c>
       <c r="V58" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="162"/>
         <v>00</v>
       </c>
       <c r="W58" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="163"/>
         <v>08</v>
       </c>
       <c r="X58" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="164"/>
         <v>10</v>
       </c>
       <c r="Y58" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="165"/>
         <v>F8</v>
       </c>
       <c r="Z58" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="166"/>
         <v>20</v>
       </c>
       <c r="AA58" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="167"/>
         <v>28</v>
       </c>
       <c r="AB58" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="175"/>
         <v>0A</v>
       </c>
       <c r="AC58" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="168"/>
         <v>0A</v>
       </c>
       <c r="AD58" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="169"/>
         <v>0A</v>
       </c>
       <c r="AE58" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="170"/>
         <v>0A</v>
       </c>
       <c r="AF58" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="171"/>
         <v>0A</v>
       </c>
       <c r="AG58" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="172"/>
         <v>0A</v>
       </c>
       <c r="AJ58">
@@ -8834,99 +9046,99 @@
         <v>22</v>
       </c>
       <c r="J59">
-        <f t="shared" si="124"/>
+        <f t="shared" si="176"/>
         <v>2712</v>
       </c>
       <c r="K59">
-        <f t="shared" si="125"/>
+        <f t="shared" si="177"/>
         <v>2704</v>
       </c>
       <c r="L59">
-        <f t="shared" si="126"/>
+        <f t="shared" si="178"/>
         <v>2720</v>
       </c>
       <c r="M59">
-        <f t="shared" si="127"/>
+        <f t="shared" si="179"/>
         <v>2808</v>
       </c>
       <c r="N59">
-        <f t="shared" si="128"/>
+        <f t="shared" si="180"/>
         <v>2728</v>
       </c>
       <c r="O59">
-        <f t="shared" si="129"/>
+        <f t="shared" si="181"/>
         <v>2736</v>
       </c>
       <c r="P59" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="173"/>
         <v>0A98</v>
       </c>
       <c r="Q59" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="158"/>
         <v>0A90</v>
       </c>
       <c r="R59" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="159"/>
         <v>0AA0</v>
       </c>
       <c r="S59" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="160"/>
         <v>0AF8</v>
       </c>
       <c r="T59" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="161"/>
         <v>0AA8</v>
       </c>
       <c r="U59" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="174"/>
         <v>0AB0</v>
       </c>
       <c r="V59" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="162"/>
         <v>98</v>
       </c>
       <c r="W59" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="163"/>
         <v>90</v>
       </c>
       <c r="X59" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="164"/>
         <v>A0</v>
       </c>
       <c r="Y59" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="165"/>
         <v>F8</v>
       </c>
       <c r="Z59" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="166"/>
         <v>A8</v>
       </c>
       <c r="AA59" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="167"/>
         <v>B0</v>
       </c>
       <c r="AB59" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="175"/>
         <v>0A</v>
       </c>
       <c r="AC59" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="168"/>
         <v>0A</v>
       </c>
       <c r="AD59" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="169"/>
         <v>0A</v>
       </c>
       <c r="AE59" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="170"/>
         <v>0A</v>
       </c>
       <c r="AF59" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="171"/>
         <v>0A</v>
       </c>
       <c r="AG59" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="172"/>
         <v>0A</v>
       </c>
     </row>
@@ -8953,99 +9165,99 @@
         <v>5</v>
       </c>
       <c r="J60">
-        <f t="shared" si="124"/>
+        <f t="shared" si="176"/>
         <v>2560</v>
       </c>
       <c r="K60">
-        <f t="shared" si="125"/>
+        <f t="shared" si="177"/>
         <v>2568</v>
       </c>
       <c r="L60">
-        <f t="shared" si="126"/>
+        <f t="shared" si="178"/>
         <v>2576</v>
       </c>
       <c r="M60">
-        <f t="shared" si="127"/>
+        <f t="shared" si="179"/>
         <v>2808</v>
       </c>
       <c r="N60">
-        <f t="shared" si="128"/>
+        <f t="shared" si="180"/>
         <v>2592</v>
       </c>
       <c r="O60">
-        <f t="shared" si="129"/>
+        <f t="shared" si="181"/>
         <v>2600</v>
       </c>
       <c r="P60" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="173"/>
         <v>0A00</v>
       </c>
       <c r="Q60" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="158"/>
         <v>0A08</v>
       </c>
       <c r="R60" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="159"/>
         <v>0A10</v>
       </c>
       <c r="S60" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="160"/>
         <v>0AF8</v>
       </c>
       <c r="T60" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="161"/>
         <v>0A20</v>
       </c>
       <c r="U60" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="174"/>
         <v>0A28</v>
       </c>
       <c r="V60" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="162"/>
         <v>00</v>
       </c>
       <c r="W60" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="163"/>
         <v>08</v>
       </c>
       <c r="X60" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="164"/>
         <v>10</v>
       </c>
       <c r="Y60" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="165"/>
         <v>F8</v>
       </c>
       <c r="Z60" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="166"/>
         <v>20</v>
       </c>
       <c r="AA60" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="167"/>
         <v>28</v>
       </c>
       <c r="AB60" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="175"/>
         <v>0A</v>
       </c>
       <c r="AC60" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="168"/>
         <v>0A</v>
       </c>
       <c r="AD60" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="169"/>
         <v>0A</v>
       </c>
       <c r="AE60" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="170"/>
         <v>0A</v>
       </c>
       <c r="AF60" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="171"/>
         <v>0A</v>
       </c>
       <c r="AG60" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="172"/>
         <v>0A</v>
       </c>
     </row>
@@ -9072,99 +9284,99 @@
         <v>37</v>
       </c>
       <c r="J61">
-        <f t="shared" si="124"/>
+        <f t="shared" si="176"/>
         <v>2816</v>
       </c>
       <c r="K61">
-        <f t="shared" si="125"/>
+        <f t="shared" si="177"/>
         <v>2824</v>
       </c>
       <c r="L61">
-        <f t="shared" si="126"/>
+        <f t="shared" si="178"/>
         <v>2832</v>
       </c>
       <c r="M61">
-        <f t="shared" si="127"/>
+        <f t="shared" si="179"/>
         <v>2840</v>
       </c>
       <c r="N61">
-        <f t="shared" si="128"/>
+        <f t="shared" si="180"/>
         <v>2848</v>
       </c>
       <c r="O61">
-        <f t="shared" si="129"/>
+        <f t="shared" si="181"/>
         <v>2856</v>
       </c>
       <c r="P61" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="173"/>
         <v>0B00</v>
       </c>
       <c r="Q61" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="158"/>
         <v>0B08</v>
       </c>
       <c r="R61" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="159"/>
         <v>0B10</v>
       </c>
       <c r="S61" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="160"/>
         <v>0B18</v>
       </c>
       <c r="T61" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="161"/>
         <v>0B20</v>
       </c>
       <c r="U61" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="174"/>
         <v>0B28</v>
       </c>
       <c r="V61" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="162"/>
         <v>00</v>
       </c>
       <c r="W61" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="163"/>
         <v>08</v>
       </c>
       <c r="X61" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="164"/>
         <v>10</v>
       </c>
       <c r="Y61" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="165"/>
         <v>18</v>
       </c>
       <c r="Z61" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="166"/>
         <v>20</v>
       </c>
       <c r="AA61" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="167"/>
         <v>28</v>
       </c>
       <c r="AB61" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="175"/>
         <v>0B</v>
       </c>
       <c r="AC61" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="168"/>
         <v>0B</v>
       </c>
       <c r="AD61" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="169"/>
         <v>0B</v>
       </c>
       <c r="AE61" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="170"/>
         <v>0B</v>
       </c>
       <c r="AF61" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="171"/>
         <v>0B</v>
       </c>
       <c r="AG61" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="172"/>
         <v>0B</v>
       </c>
     </row>
@@ -9191,99 +9403,99 @@
         <v>42</v>
       </c>
       <c r="J62">
-        <f t="shared" si="124"/>
+        <f t="shared" si="176"/>
         <v>2872</v>
       </c>
       <c r="K62">
-        <f t="shared" si="125"/>
+        <f t="shared" si="177"/>
         <v>2864</v>
       </c>
       <c r="L62">
-        <f t="shared" si="126"/>
+        <f t="shared" si="178"/>
         <v>2888</v>
       </c>
       <c r="M62">
-        <f t="shared" si="127"/>
+        <f t="shared" si="179"/>
         <v>2880</v>
       </c>
       <c r="N62">
-        <f t="shared" si="128"/>
+        <f t="shared" si="180"/>
         <v>2904</v>
       </c>
       <c r="O62">
-        <f t="shared" si="129"/>
+        <f t="shared" si="181"/>
         <v>2896</v>
       </c>
       <c r="P62" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="173"/>
         <v>0B38</v>
       </c>
       <c r="Q62" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="158"/>
         <v>0B30</v>
       </c>
       <c r="R62" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="159"/>
         <v>0B48</v>
       </c>
       <c r="S62" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="160"/>
         <v>0B40</v>
       </c>
       <c r="T62" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="161"/>
         <v>0B58</v>
       </c>
       <c r="U62" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="174"/>
         <v>0B50</v>
       </c>
       <c r="V62" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="162"/>
         <v>38</v>
       </c>
       <c r="W62" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="163"/>
         <v>30</v>
       </c>
       <c r="X62" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="164"/>
         <v>48</v>
       </c>
       <c r="Y62" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="165"/>
         <v>40</v>
       </c>
       <c r="Z62" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="166"/>
         <v>58</v>
       </c>
       <c r="AA62" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="167"/>
         <v>50</v>
       </c>
       <c r="AB62" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="175"/>
         <v>0B</v>
       </c>
       <c r="AC62" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="168"/>
         <v>0B</v>
       </c>
       <c r="AD62" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="169"/>
         <v>0B</v>
       </c>
       <c r="AE62" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="170"/>
         <v>0B</v>
       </c>
       <c r="AF62" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="171"/>
         <v>0B</v>
       </c>
       <c r="AG62" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="172"/>
         <v>0B</v>
       </c>
     </row>
@@ -9310,99 +9522,99 @@
         <v>99</v>
       </c>
       <c r="J63">
-        <f t="shared" si="124"/>
+        <f t="shared" si="176"/>
         <v>3352</v>
       </c>
       <c r="K63">
-        <f t="shared" si="125"/>
+        <f t="shared" si="177"/>
         <v>3352</v>
       </c>
       <c r="L63">
-        <f t="shared" si="126"/>
+        <f t="shared" si="178"/>
         <v>3352</v>
       </c>
       <c r="M63">
-        <f t="shared" si="127"/>
+        <f t="shared" si="179"/>
         <v>3352</v>
       </c>
       <c r="N63">
-        <f t="shared" si="128"/>
+        <f t="shared" si="180"/>
         <v>3352</v>
       </c>
       <c r="O63">
-        <f t="shared" si="129"/>
+        <f t="shared" si="181"/>
         <v>3352</v>
       </c>
       <c r="P63" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="173"/>
         <v>0D18</v>
       </c>
       <c r="Q63" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="158"/>
         <v>0D18</v>
       </c>
       <c r="R63" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="159"/>
         <v>0D18</v>
       </c>
       <c r="S63" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="160"/>
         <v>0D18</v>
       </c>
       <c r="T63" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="161"/>
         <v>0D18</v>
       </c>
       <c r="U63" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="174"/>
         <v>0D18</v>
       </c>
       <c r="V63" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="162"/>
         <v>18</v>
       </c>
       <c r="W63" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="163"/>
         <v>18</v>
       </c>
       <c r="X63" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="164"/>
         <v>18</v>
       </c>
       <c r="Y63" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="165"/>
         <v>18</v>
       </c>
       <c r="Z63" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="166"/>
         <v>18</v>
       </c>
       <c r="AA63" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="167"/>
         <v>18</v>
       </c>
       <c r="AB63" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="175"/>
         <v>0D</v>
       </c>
       <c r="AC63" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="168"/>
         <v>0D</v>
       </c>
       <c r="AD63" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="169"/>
         <v>0D</v>
       </c>
       <c r="AE63" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="170"/>
         <v>0D</v>
       </c>
       <c r="AF63" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="171"/>
         <v>0D</v>
       </c>
       <c r="AG63" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="172"/>
         <v>0D</v>
       </c>
     </row>
@@ -9429,99 +9641,99 @@
         <v>99</v>
       </c>
       <c r="J64">
-        <f t="shared" si="124"/>
+        <f t="shared" si="176"/>
         <v>3352</v>
       </c>
       <c r="K64">
-        <f t="shared" si="125"/>
+        <f t="shared" si="177"/>
         <v>3352</v>
       </c>
       <c r="L64">
-        <f t="shared" si="126"/>
+        <f t="shared" si="178"/>
         <v>3352</v>
       </c>
       <c r="M64">
-        <f t="shared" si="127"/>
+        <f t="shared" si="179"/>
         <v>3352</v>
       </c>
       <c r="N64">
-        <f t="shared" si="128"/>
+        <f t="shared" si="180"/>
         <v>3352</v>
       </c>
       <c r="O64">
-        <f t="shared" si="129"/>
+        <f t="shared" si="181"/>
         <v>3352</v>
       </c>
       <c r="P64" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="173"/>
         <v>0D18</v>
       </c>
       <c r="Q64" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="158"/>
         <v>0D18</v>
       </c>
       <c r="R64" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="159"/>
         <v>0D18</v>
       </c>
       <c r="S64" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="160"/>
         <v>0D18</v>
       </c>
       <c r="T64" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="161"/>
         <v>0D18</v>
       </c>
       <c r="U64" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="174"/>
         <v>0D18</v>
       </c>
       <c r="V64" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="162"/>
         <v>18</v>
       </c>
       <c r="W64" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="163"/>
         <v>18</v>
       </c>
       <c r="X64" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="164"/>
         <v>18</v>
       </c>
       <c r="Y64" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="165"/>
         <v>18</v>
       </c>
       <c r="Z64" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="166"/>
         <v>18</v>
       </c>
       <c r="AA64" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="167"/>
         <v>18</v>
       </c>
       <c r="AB64" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="175"/>
         <v>0D</v>
       </c>
       <c r="AC64" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="168"/>
         <v>0D</v>
       </c>
       <c r="AD64" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="169"/>
         <v>0D</v>
       </c>
       <c r="AE64" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="170"/>
         <v>0D</v>
       </c>
       <c r="AF64" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="171"/>
         <v>0D</v>
       </c>
       <c r="AG64" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="172"/>
         <v>0D</v>
       </c>
     </row>
@@ -9548,99 +9760,99 @@
         <v>37</v>
       </c>
       <c r="J65">
-        <f t="shared" si="124"/>
+        <f t="shared" si="176"/>
         <v>2816</v>
       </c>
       <c r="K65">
-        <f t="shared" si="125"/>
+        <f t="shared" si="177"/>
         <v>2824</v>
       </c>
       <c r="L65">
-        <f t="shared" si="126"/>
+        <f t="shared" si="178"/>
         <v>3256</v>
       </c>
       <c r="M65">
-        <f t="shared" si="127"/>
+        <f t="shared" si="179"/>
         <v>3264</v>
       </c>
       <c r="N65">
-        <f t="shared" si="128"/>
+        <f t="shared" si="180"/>
         <v>2848</v>
       </c>
       <c r="O65">
-        <f t="shared" si="129"/>
+        <f t="shared" si="181"/>
         <v>2856</v>
       </c>
       <c r="P65" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="173"/>
         <v>0B00</v>
       </c>
       <c r="Q65" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="158"/>
         <v>0B08</v>
       </c>
       <c r="R65" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="159"/>
         <v>0CB8</v>
       </c>
       <c r="S65" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="160"/>
         <v>0CC0</v>
       </c>
       <c r="T65" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="161"/>
         <v>0B20</v>
       </c>
       <c r="U65" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="174"/>
         <v>0B28</v>
       </c>
       <c r="V65" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="162"/>
         <v>00</v>
       </c>
       <c r="W65" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="163"/>
         <v>08</v>
       </c>
       <c r="X65" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="164"/>
         <v>B8</v>
       </c>
       <c r="Y65" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="165"/>
         <v>C0</v>
       </c>
       <c r="Z65" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="166"/>
         <v>20</v>
       </c>
       <c r="AA65" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="167"/>
         <v>28</v>
       </c>
       <c r="AB65" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="175"/>
         <v>0B</v>
       </c>
       <c r="AC65" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="168"/>
         <v>0B</v>
       </c>
       <c r="AD65" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="169"/>
         <v>0C</v>
       </c>
       <c r="AE65" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="170"/>
         <v>0C</v>
       </c>
       <c r="AF65" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="171"/>
         <v>0B</v>
       </c>
       <c r="AG65" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="172"/>
         <v>0B</v>
       </c>
     </row>
@@ -9667,99 +9879,99 @@
         <v>42</v>
       </c>
       <c r="J66">
-        <f t="shared" si="124"/>
+        <f t="shared" si="176"/>
         <v>2872</v>
       </c>
       <c r="K66">
-        <f t="shared" si="125"/>
+        <f t="shared" si="177"/>
         <v>2864</v>
       </c>
       <c r="L66">
-        <f t="shared" si="126"/>
+        <f t="shared" si="178"/>
         <v>3280</v>
       </c>
       <c r="M66">
-        <f t="shared" si="127"/>
+        <f t="shared" si="179"/>
         <v>3272</v>
       </c>
       <c r="N66">
-        <f t="shared" si="128"/>
+        <f t="shared" si="180"/>
         <v>2904</v>
       </c>
       <c r="O66">
-        <f t="shared" si="129"/>
+        <f t="shared" si="181"/>
         <v>2896</v>
       </c>
       <c r="P66" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="173"/>
         <v>0B38</v>
       </c>
       <c r="Q66" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="158"/>
         <v>0B30</v>
       </c>
       <c r="R66" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="159"/>
         <v>0CD0</v>
       </c>
       <c r="S66" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="160"/>
         <v>0CC8</v>
       </c>
       <c r="T66" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="161"/>
         <v>0B58</v>
       </c>
       <c r="U66" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="174"/>
         <v>0B50</v>
       </c>
       <c r="V66" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="162"/>
         <v>38</v>
       </c>
       <c r="W66" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="163"/>
         <v>30</v>
       </c>
       <c r="X66" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="164"/>
         <v>D0</v>
       </c>
       <c r="Y66" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="165"/>
         <v>C8</v>
       </c>
       <c r="Z66" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="166"/>
         <v>58</v>
       </c>
       <c r="AA66" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="167"/>
         <v>50</v>
       </c>
       <c r="AB66" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="175"/>
         <v>0B</v>
       </c>
       <c r="AC66" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="168"/>
         <v>0B</v>
       </c>
       <c r="AD66" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="169"/>
         <v>0C</v>
       </c>
       <c r="AE66" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="170"/>
         <v>0C</v>
       </c>
       <c r="AF66" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="171"/>
         <v>0B</v>
       </c>
       <c r="AG66" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="172"/>
         <v>0B</v>
       </c>
     </row>
@@ -9786,99 +9998,99 @@
         <v>99</v>
       </c>
       <c r="J67">
-        <f t="shared" si="124"/>
+        <f t="shared" si="176"/>
         <v>3352</v>
       </c>
       <c r="K67">
-        <f t="shared" si="125"/>
+        <f t="shared" si="177"/>
         <v>3352</v>
       </c>
       <c r="L67">
-        <f t="shared" si="126"/>
+        <f t="shared" si="178"/>
         <v>3352</v>
       </c>
       <c r="M67">
-        <f t="shared" si="127"/>
+        <f t="shared" si="179"/>
         <v>3352</v>
       </c>
       <c r="N67">
-        <f t="shared" si="128"/>
+        <f t="shared" si="180"/>
         <v>3352</v>
       </c>
       <c r="O67">
-        <f t="shared" si="129"/>
+        <f t="shared" si="181"/>
         <v>3352</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="173"/>
         <v>0D18</v>
       </c>
       <c r="Q67" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="158"/>
         <v>0D18</v>
       </c>
       <c r="R67" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="159"/>
         <v>0D18</v>
       </c>
       <c r="S67" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="160"/>
         <v>0D18</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="161"/>
         <v>0D18</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="174"/>
         <v>0D18</v>
       </c>
       <c r="V67" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="162"/>
         <v>18</v>
       </c>
       <c r="W67" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="163"/>
         <v>18</v>
       </c>
       <c r="X67" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="164"/>
         <v>18</v>
       </c>
       <c r="Y67" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="165"/>
         <v>18</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="166"/>
         <v>18</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="167"/>
         <v>18</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="175"/>
         <v>0D</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="168"/>
         <v>0D</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="169"/>
         <v>0D</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="170"/>
         <v>0D</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="171"/>
         <v>0D</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="172"/>
         <v>0D</v>
       </c>
     </row>
@@ -9905,99 +10117,99 @@
         <v>99</v>
       </c>
       <c r="J68">
-        <f t="shared" si="124"/>
+        <f t="shared" si="176"/>
         <v>3352</v>
       </c>
       <c r="K68">
-        <f t="shared" si="125"/>
+        <f t="shared" si="177"/>
         <v>3352</v>
       </c>
       <c r="L68">
-        <f t="shared" si="126"/>
+        <f t="shared" si="178"/>
         <v>3352</v>
       </c>
       <c r="M68">
-        <f t="shared" si="127"/>
+        <f t="shared" si="179"/>
         <v>3352</v>
       </c>
       <c r="N68">
-        <f t="shared" si="128"/>
+        <f t="shared" si="180"/>
         <v>3352</v>
       </c>
       <c r="O68">
-        <f t="shared" si="129"/>
+        <f t="shared" si="181"/>
         <v>3352</v>
       </c>
       <c r="P68" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="173"/>
         <v>0D18</v>
       </c>
       <c r="Q68" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="158"/>
         <v>0D18</v>
       </c>
       <c r="R68" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="159"/>
         <v>0D18</v>
       </c>
       <c r="S68" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="160"/>
         <v>0D18</v>
       </c>
       <c r="T68" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="161"/>
         <v>0D18</v>
       </c>
       <c r="U68" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="174"/>
         <v>0D18</v>
       </c>
       <c r="V68" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="162"/>
         <v>18</v>
       </c>
       <c r="W68" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="163"/>
         <v>18</v>
       </c>
       <c r="X68" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="164"/>
         <v>18</v>
       </c>
       <c r="Y68" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="165"/>
         <v>18</v>
       </c>
       <c r="Z68" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="166"/>
         <v>18</v>
       </c>
       <c r="AA68" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="167"/>
         <v>18</v>
       </c>
       <c r="AB68" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="175"/>
         <v>0D</v>
       </c>
       <c r="AC68" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="168"/>
         <v>0D</v>
       </c>
       <c r="AD68" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="169"/>
         <v>0D</v>
       </c>
       <c r="AE68" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="170"/>
         <v>0D</v>
       </c>
       <c r="AF68" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="171"/>
         <v>0D</v>
       </c>
       <c r="AG68" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="172"/>
         <v>0D</v>
       </c>
     </row>
@@ -10024,99 +10236,99 @@
         <v>48</v>
       </c>
       <c r="J69">
-        <f t="shared" si="124"/>
+        <f t="shared" si="176"/>
         <v>2920</v>
       </c>
       <c r="K69">
-        <f t="shared" si="125"/>
+        <f t="shared" si="177"/>
         <v>2912</v>
       </c>
       <c r="L69">
-        <f t="shared" si="126"/>
+        <f t="shared" si="178"/>
         <v>2936</v>
       </c>
       <c r="M69">
-        <f t="shared" si="127"/>
+        <f t="shared" si="179"/>
         <v>2928</v>
       </c>
       <c r="N69">
-        <f t="shared" si="128"/>
+        <f t="shared" si="180"/>
         <v>2952</v>
       </c>
       <c r="O69">
-        <f t="shared" si="129"/>
+        <f t="shared" si="181"/>
         <v>2944</v>
       </c>
       <c r="P69" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="173"/>
         <v>0B68</v>
       </c>
       <c r="Q69" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="158"/>
         <v>0B60</v>
       </c>
       <c r="R69" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="159"/>
         <v>0B78</v>
       </c>
       <c r="S69" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="160"/>
         <v>0B70</v>
       </c>
       <c r="T69" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="161"/>
         <v>0B88</v>
       </c>
       <c r="U69" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="174"/>
         <v>0B80</v>
       </c>
       <c r="V69" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="162"/>
         <v>68</v>
       </c>
       <c r="W69" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="163"/>
         <v>60</v>
       </c>
       <c r="X69" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="164"/>
         <v>78</v>
       </c>
       <c r="Y69" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="165"/>
         <v>70</v>
       </c>
       <c r="Z69" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="166"/>
         <v>88</v>
       </c>
       <c r="AA69" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="167"/>
         <v>80</v>
       </c>
       <c r="AB69" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="175"/>
         <v>0B</v>
       </c>
       <c r="AC69" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="168"/>
         <v>0B</v>
       </c>
       <c r="AD69" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="169"/>
         <v>0B</v>
       </c>
       <c r="AE69" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="170"/>
         <v>0B</v>
       </c>
       <c r="AF69" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="171"/>
         <v>0B</v>
       </c>
       <c r="AG69" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="172"/>
         <v>0B</v>
       </c>
     </row>
@@ -10143,99 +10355,99 @@
         <v>60</v>
       </c>
       <c r="J70">
-        <f t="shared" si="124"/>
+        <f t="shared" si="176"/>
         <v>3016</v>
       </c>
       <c r="K70">
-        <f t="shared" si="125"/>
+        <f t="shared" si="177"/>
         <v>3008</v>
       </c>
       <c r="L70">
-        <f t="shared" si="126"/>
+        <f t="shared" si="178"/>
         <v>3032</v>
       </c>
       <c r="M70">
-        <f t="shared" si="127"/>
+        <f t="shared" si="179"/>
         <v>3024</v>
       </c>
       <c r="N70">
-        <f t="shared" si="128"/>
+        <f t="shared" si="180"/>
         <v>3048</v>
       </c>
       <c r="O70">
-        <f t="shared" si="129"/>
+        <f t="shared" si="181"/>
         <v>3040</v>
       </c>
       <c r="P70" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="173"/>
         <v>0BC8</v>
       </c>
       <c r="Q70" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="158"/>
         <v>0BC0</v>
       </c>
       <c r="R70" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="159"/>
         <v>0BD8</v>
       </c>
       <c r="S70" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="160"/>
         <v>0BD0</v>
       </c>
       <c r="T70" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="161"/>
         <v>0BE8</v>
       </c>
       <c r="U70" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="174"/>
         <v>0BE0</v>
       </c>
       <c r="V70" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="162"/>
         <v>C8</v>
       </c>
       <c r="W70" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="163"/>
         <v>C0</v>
       </c>
       <c r="X70" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="164"/>
         <v>D8</v>
       </c>
       <c r="Y70" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="165"/>
         <v>D0</v>
       </c>
       <c r="Z70" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="166"/>
         <v>E8</v>
       </c>
       <c r="AA70" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="167"/>
         <v>E0</v>
       </c>
       <c r="AB70" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="175"/>
         <v>0B</v>
       </c>
       <c r="AC70" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="168"/>
         <v>0B</v>
       </c>
       <c r="AD70" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="169"/>
         <v>0B</v>
       </c>
       <c r="AE70" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="170"/>
         <v>0B</v>
       </c>
       <c r="AF70" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="171"/>
         <v>0B</v>
       </c>
       <c r="AG70" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="172"/>
         <v>0B</v>
       </c>
     </row>
@@ -10262,99 +10474,99 @@
         <v>54</v>
       </c>
       <c r="J71">
-        <f t="shared" si="124"/>
+        <f t="shared" si="176"/>
         <v>2968</v>
       </c>
       <c r="K71">
-        <f t="shared" si="125"/>
+        <f t="shared" si="177"/>
         <v>2960</v>
       </c>
       <c r="L71">
-        <f t="shared" si="126"/>
+        <f t="shared" si="178"/>
         <v>2984</v>
       </c>
       <c r="M71">
-        <f t="shared" si="127"/>
+        <f t="shared" si="179"/>
         <v>2976</v>
       </c>
       <c r="N71">
-        <f t="shared" si="128"/>
+        <f t="shared" si="180"/>
         <v>3000</v>
       </c>
       <c r="O71">
-        <f t="shared" si="129"/>
+        <f t="shared" si="181"/>
         <v>2992</v>
       </c>
       <c r="P71" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="173"/>
         <v>0B98</v>
       </c>
       <c r="Q71" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="158"/>
         <v>0B90</v>
       </c>
       <c r="R71" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="159"/>
         <v>0BA8</v>
       </c>
       <c r="S71" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="160"/>
         <v>0BA0</v>
       </c>
       <c r="T71" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="161"/>
         <v>0BB8</v>
       </c>
       <c r="U71" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="174"/>
         <v>0BB0</v>
       </c>
       <c r="V71" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="162"/>
         <v>98</v>
       </c>
       <c r="W71" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="163"/>
         <v>90</v>
       </c>
       <c r="X71" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="164"/>
         <v>A8</v>
       </c>
       <c r="Y71" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="165"/>
         <v>A0</v>
       </c>
       <c r="Z71" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="166"/>
         <v>B8</v>
       </c>
       <c r="AA71" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="167"/>
         <v>B0</v>
       </c>
       <c r="AB71" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="175"/>
         <v>0B</v>
       </c>
       <c r="AC71" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="168"/>
         <v>0B</v>
       </c>
       <c r="AD71" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="169"/>
         <v>0B</v>
       </c>
       <c r="AE71" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="170"/>
         <v>0B</v>
       </c>
       <c r="AF71" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="171"/>
         <v>0B</v>
       </c>
       <c r="AG71" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="172"/>
         <v>0B</v>
       </c>
     </row>
@@ -10381,39 +10593,39 @@
         <v>65</v>
       </c>
       <c r="J72">
-        <f t="shared" si="124"/>
+        <f t="shared" si="176"/>
         <v>3056</v>
       </c>
       <c r="K72">
-        <f t="shared" si="125"/>
+        <f t="shared" si="177"/>
         <v>3064</v>
       </c>
       <c r="L72">
-        <f t="shared" si="126"/>
+        <f t="shared" si="178"/>
         <v>3072</v>
       </c>
       <c r="M72">
-        <f t="shared" si="127"/>
+        <f t="shared" si="179"/>
         <v>3248</v>
       </c>
       <c r="N72">
-        <f t="shared" si="128"/>
+        <f t="shared" si="180"/>
         <v>3088</v>
       </c>
       <c r="O72">
-        <f t="shared" si="129"/>
+        <f t="shared" si="181"/>
         <v>3080</v>
       </c>
       <c r="P72" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="173"/>
         <v>0BF0</v>
       </c>
       <c r="Q72" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="158"/>
         <v>0BF8</v>
       </c>
       <c r="R72" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="159"/>
         <v>0C00</v>
       </c>
       <c r="S72" t="str">
@@ -10421,59 +10633,59 @@
         <v>0CB0</v>
       </c>
       <c r="T72" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="161"/>
         <v>0C10</v>
       </c>
       <c r="U72" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="174"/>
         <v>0C08</v>
       </c>
       <c r="V72" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="162"/>
         <v>F0</v>
       </c>
       <c r="W72" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="163"/>
         <v>F8</v>
       </c>
       <c r="X72" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="164"/>
         <v>00</v>
       </c>
       <c r="Y72" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="165"/>
         <v>B0</v>
       </c>
       <c r="Z72" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="166"/>
         <v>10</v>
       </c>
       <c r="AA72" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="167"/>
         <v>08</v>
       </c>
       <c r="AB72" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="175"/>
         <v>0B</v>
       </c>
       <c r="AC72" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="168"/>
         <v>0B</v>
       </c>
       <c r="AD72" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="169"/>
         <v>0C</v>
       </c>
       <c r="AE72" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="170"/>
         <v>0C</v>
       </c>
       <c r="AF72" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="171"/>
         <v>0C</v>
       </c>
       <c r="AG72" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="172"/>
         <v>0C</v>
       </c>
     </row>
@@ -10500,99 +10712,99 @@
         <v>48</v>
       </c>
       <c r="J73">
-        <f t="shared" si="124"/>
+        <f t="shared" si="176"/>
         <v>2920</v>
       </c>
       <c r="K73">
-        <f t="shared" si="125"/>
+        <f t="shared" si="177"/>
         <v>2912</v>
       </c>
       <c r="L73">
-        <f t="shared" si="126"/>
+        <f t="shared" si="178"/>
         <v>3104</v>
       </c>
       <c r="M73">
-        <f t="shared" si="127"/>
+        <f t="shared" si="179"/>
         <v>3096</v>
       </c>
       <c r="N73">
-        <f t="shared" si="128"/>
+        <f t="shared" si="180"/>
         <v>2952</v>
       </c>
       <c r="O73">
-        <f t="shared" si="129"/>
+        <f t="shared" si="181"/>
         <v>2944</v>
       </c>
       <c r="P73" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="173"/>
         <v>0B68</v>
       </c>
       <c r="Q73" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="158"/>
         <v>0B60</v>
       </c>
       <c r="R73" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="159"/>
         <v>0C20</v>
       </c>
       <c r="S73" t="str">
-        <f t="shared" ref="S73:S79" si="130">DEC2HEX(M73,4)</f>
+        <f t="shared" ref="S73:S79" si="182">DEC2HEX(M73,4)</f>
         <v>0C18</v>
       </c>
       <c r="T73" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="161"/>
         <v>0B88</v>
       </c>
       <c r="U73" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="174"/>
         <v>0B80</v>
       </c>
       <c r="V73" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="162"/>
         <v>68</v>
       </c>
       <c r="W73" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="163"/>
         <v>60</v>
       </c>
       <c r="X73" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="164"/>
         <v>20</v>
       </c>
       <c r="Y73" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="165"/>
         <v>18</v>
       </c>
       <c r="Z73" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="166"/>
         <v>88</v>
       </c>
       <c r="AA73" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="167"/>
         <v>80</v>
       </c>
       <c r="AB73" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="175"/>
         <v>0B</v>
       </c>
       <c r="AC73" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="168"/>
         <v>0B</v>
       </c>
       <c r="AD73" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="169"/>
         <v>0C</v>
       </c>
       <c r="AE73" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="170"/>
         <v>0C</v>
       </c>
       <c r="AF73" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="171"/>
         <v>0B</v>
       </c>
       <c r="AG73" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="172"/>
         <v>0B</v>
       </c>
     </row>
@@ -10619,99 +10831,99 @@
         <v>60</v>
       </c>
       <c r="J74">
-        <f t="shared" si="124"/>
+        <f t="shared" si="176"/>
         <v>3016</v>
       </c>
       <c r="K74">
-        <f t="shared" si="125"/>
+        <f t="shared" si="177"/>
         <v>3008</v>
       </c>
       <c r="L74">
-        <f t="shared" si="126"/>
+        <f t="shared" si="178"/>
         <v>3136</v>
       </c>
       <c r="M74">
-        <f t="shared" si="127"/>
+        <f t="shared" si="179"/>
         <v>3128</v>
       </c>
       <c r="N74">
-        <f t="shared" si="128"/>
+        <f t="shared" si="180"/>
         <v>3048</v>
       </c>
       <c r="O74">
-        <f t="shared" si="129"/>
+        <f t="shared" si="181"/>
         <v>3040</v>
       </c>
       <c r="P74" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="173"/>
         <v>0BC8</v>
       </c>
       <c r="Q74" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="158"/>
         <v>0BC0</v>
       </c>
       <c r="R74" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="159"/>
         <v>0C40</v>
       </c>
       <c r="S74" t="str">
-        <f t="shared" si="130"/>
+        <f t="shared" si="182"/>
         <v>0C38</v>
       </c>
       <c r="T74" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="161"/>
         <v>0BE8</v>
       </c>
       <c r="U74" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="174"/>
         <v>0BE0</v>
       </c>
       <c r="V74" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="162"/>
         <v>C8</v>
       </c>
       <c r="W74" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="163"/>
         <v>C0</v>
       </c>
       <c r="X74" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="164"/>
         <v>40</v>
       </c>
       <c r="Y74" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="165"/>
         <v>38</v>
       </c>
       <c r="Z74" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="166"/>
         <v>E8</v>
       </c>
       <c r="AA74" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="167"/>
         <v>E0</v>
       </c>
       <c r="AB74" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="175"/>
         <v>0B</v>
       </c>
       <c r="AC74" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="168"/>
         <v>0B</v>
       </c>
       <c r="AD74" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="169"/>
         <v>0C</v>
       </c>
       <c r="AE74" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="170"/>
         <v>0C</v>
       </c>
       <c r="AF74" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="171"/>
         <v>0B</v>
       </c>
       <c r="AG74" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="172"/>
         <v>0B</v>
       </c>
     </row>
@@ -10738,99 +10950,99 @@
         <v>54</v>
       </c>
       <c r="J75">
-        <f t="shared" si="124"/>
+        <f t="shared" si="176"/>
         <v>2968</v>
       </c>
       <c r="K75">
-        <f t="shared" si="125"/>
+        <f t="shared" si="177"/>
         <v>2960</v>
       </c>
       <c r="L75">
-        <f t="shared" si="126"/>
+        <f t="shared" si="178"/>
         <v>3120</v>
       </c>
       <c r="M75">
-        <f t="shared" si="127"/>
+        <f t="shared" si="179"/>
         <v>3112</v>
       </c>
       <c r="N75">
-        <f t="shared" si="128"/>
+        <f t="shared" si="180"/>
         <v>3000</v>
       </c>
       <c r="O75">
-        <f t="shared" si="129"/>
+        <f t="shared" si="181"/>
         <v>2992</v>
       </c>
       <c r="P75" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="173"/>
         <v>0B98</v>
       </c>
       <c r="Q75" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="158"/>
         <v>0B90</v>
       </c>
       <c r="R75" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="159"/>
         <v>0C30</v>
       </c>
       <c r="S75" t="str">
-        <f t="shared" si="130"/>
+        <f t="shared" si="182"/>
         <v>0C28</v>
       </c>
       <c r="T75" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="161"/>
         <v>0BB8</v>
       </c>
       <c r="U75" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="174"/>
         <v>0BB0</v>
       </c>
       <c r="V75" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="162"/>
         <v>98</v>
       </c>
       <c r="W75" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="163"/>
         <v>90</v>
       </c>
       <c r="X75" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="164"/>
         <v>30</v>
       </c>
       <c r="Y75" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="165"/>
         <v>28</v>
       </c>
       <c r="Z75" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="166"/>
         <v>B8</v>
       </c>
       <c r="AA75" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="167"/>
         <v>B0</v>
       </c>
       <c r="AB75" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="175"/>
         <v>0B</v>
       </c>
       <c r="AC75" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="168"/>
         <v>0B</v>
       </c>
       <c r="AD75" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="169"/>
         <v>0C</v>
       </c>
       <c r="AE75" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="170"/>
         <v>0C</v>
       </c>
       <c r="AF75" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="171"/>
         <v>0B</v>
       </c>
       <c r="AG75" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="172"/>
         <v>0B</v>
       </c>
     </row>
@@ -10857,99 +11069,99 @@
         <v>65</v>
       </c>
       <c r="J76">
-        <f t="shared" si="124"/>
+        <f t="shared" si="176"/>
         <v>3056</v>
       </c>
       <c r="K76">
-        <f t="shared" si="125"/>
+        <f t="shared" si="177"/>
         <v>3064</v>
       </c>
       <c r="L76">
-        <f t="shared" si="126"/>
+        <f t="shared" si="178"/>
         <v>3144</v>
       </c>
       <c r="M76">
-        <f t="shared" si="127"/>
+        <f t="shared" si="179"/>
         <v>3240</v>
       </c>
       <c r="N76">
-        <f t="shared" si="128"/>
+        <f t="shared" si="180"/>
         <v>3088</v>
       </c>
       <c r="O76">
-        <f t="shared" si="129"/>
+        <f t="shared" si="181"/>
         <v>3080</v>
       </c>
       <c r="P76" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="173"/>
         <v>0BF0</v>
       </c>
       <c r="Q76" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="158"/>
         <v>0BF8</v>
       </c>
       <c r="R76" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="159"/>
         <v>0C48</v>
       </c>
       <c r="S76" t="str">
-        <f t="shared" si="130"/>
+        <f t="shared" si="182"/>
         <v>0CA8</v>
       </c>
       <c r="T76" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="161"/>
         <v>0C10</v>
       </c>
       <c r="U76" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="174"/>
         <v>0C08</v>
       </c>
       <c r="V76" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="162"/>
         <v>F0</v>
       </c>
       <c r="W76" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="163"/>
         <v>F8</v>
       </c>
       <c r="X76" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="164"/>
         <v>48</v>
       </c>
       <c r="Y76" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="165"/>
         <v>A8</v>
       </c>
       <c r="Z76" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="166"/>
         <v>10</v>
       </c>
       <c r="AA76" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="167"/>
         <v>08</v>
       </c>
       <c r="AB76" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="175"/>
         <v>0B</v>
       </c>
       <c r="AC76" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="168"/>
         <v>0B</v>
       </c>
       <c r="AD76" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="169"/>
         <v>0C</v>
       </c>
       <c r="AE76" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="170"/>
         <v>0C</v>
       </c>
       <c r="AF76" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="171"/>
         <v>0C</v>
       </c>
       <c r="AG76" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="172"/>
         <v>0C</v>
       </c>
     </row>
@@ -10976,99 +11188,99 @@
         <v>48</v>
       </c>
       <c r="J77">
-        <f t="shared" si="124"/>
+        <f t="shared" si="176"/>
         <v>2920</v>
       </c>
       <c r="K77">
-        <f t="shared" si="125"/>
+        <f t="shared" si="177"/>
         <v>2912</v>
       </c>
       <c r="L77">
-        <f t="shared" si="126"/>
+        <f t="shared" si="178"/>
         <v>3248</v>
       </c>
       <c r="M77">
-        <f t="shared" si="127"/>
+        <f t="shared" si="179"/>
         <v>2928</v>
       </c>
       <c r="N77">
-        <f t="shared" si="128"/>
+        <f t="shared" si="180"/>
         <v>2952</v>
       </c>
       <c r="O77">
-        <f t="shared" si="129"/>
+        <f t="shared" si="181"/>
         <v>2944</v>
       </c>
       <c r="P77" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="173"/>
         <v>0B68</v>
       </c>
       <c r="Q77" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="158"/>
         <v>0B60</v>
       </c>
       <c r="R77" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="159"/>
         <v>0CB0</v>
       </c>
       <c r="S77" t="str">
-        <f t="shared" si="130"/>
+        <f t="shared" si="182"/>
         <v>0B70</v>
       </c>
       <c r="T77" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="161"/>
         <v>0B88</v>
       </c>
       <c r="U77" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="174"/>
         <v>0B80</v>
       </c>
       <c r="V77" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="162"/>
         <v>68</v>
       </c>
       <c r="W77" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="163"/>
         <v>60</v>
       </c>
       <c r="X77" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="164"/>
         <v>B0</v>
       </c>
       <c r="Y77" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="165"/>
         <v>70</v>
       </c>
       <c r="Z77" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="166"/>
         <v>88</v>
       </c>
       <c r="AA77" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="167"/>
         <v>80</v>
       </c>
       <c r="AB77" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="175"/>
         <v>0B</v>
       </c>
       <c r="AC77" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="168"/>
         <v>0B</v>
       </c>
       <c r="AD77" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="169"/>
         <v>0C</v>
       </c>
       <c r="AE77" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="170"/>
         <v>0B</v>
       </c>
       <c r="AF77" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="171"/>
         <v>0B</v>
       </c>
       <c r="AG77" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="172"/>
         <v>0B</v>
       </c>
     </row>
@@ -11095,99 +11307,99 @@
         <v>64</v>
       </c>
       <c r="J78">
-        <f t="shared" si="124"/>
+        <f t="shared" si="176"/>
         <v>2800</v>
       </c>
       <c r="K78">
-        <f t="shared" si="125"/>
+        <f t="shared" si="177"/>
         <v>3056</v>
       </c>
       <c r="L78">
-        <f t="shared" si="126"/>
+        <f t="shared" si="178"/>
         <v>3248</v>
       </c>
       <c r="M78">
-        <f t="shared" si="127"/>
+        <f t="shared" si="179"/>
         <v>3064</v>
       </c>
       <c r="N78">
-        <f t="shared" si="128"/>
+        <f t="shared" si="180"/>
         <v>3080</v>
       </c>
       <c r="O78">
-        <f t="shared" si="129"/>
+        <f t="shared" si="181"/>
         <v>3072</v>
       </c>
       <c r="P78" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="173"/>
         <v>0AF0</v>
       </c>
       <c r="Q78" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="158"/>
         <v>0BF0</v>
       </c>
       <c r="R78" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="159"/>
         <v>0CB0</v>
       </c>
       <c r="S78" t="str">
-        <f t="shared" si="130"/>
+        <f t="shared" si="182"/>
         <v>0BF8</v>
       </c>
       <c r="T78" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="161"/>
         <v>0C08</v>
       </c>
       <c r="U78" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="174"/>
         <v>0C00</v>
       </c>
       <c r="V78" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="162"/>
         <v>F0</v>
       </c>
       <c r="W78" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="163"/>
         <v>F0</v>
       </c>
       <c r="X78" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="164"/>
         <v>B0</v>
       </c>
       <c r="Y78" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="165"/>
         <v>F8</v>
       </c>
       <c r="Z78" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="166"/>
         <v>08</v>
       </c>
       <c r="AA78" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="167"/>
         <v>00</v>
       </c>
       <c r="AB78" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="175"/>
         <v>0A</v>
       </c>
       <c r="AC78" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="168"/>
         <v>0B</v>
       </c>
       <c r="AD78" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="169"/>
         <v>0C</v>
       </c>
       <c r="AE78" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="170"/>
         <v>0B</v>
       </c>
       <c r="AF78" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="171"/>
         <v>0C</v>
       </c>
       <c r="AG78" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="172"/>
         <v>0C</v>
       </c>
     </row>
@@ -11214,99 +11426,99 @@
         <v>48</v>
       </c>
       <c r="J79">
-        <f t="shared" si="124"/>
+        <f t="shared" si="176"/>
         <v>2920</v>
       </c>
       <c r="K79">
-        <f t="shared" si="125"/>
+        <f t="shared" si="177"/>
         <v>2912</v>
       </c>
       <c r="L79">
-        <f t="shared" si="126"/>
+        <f t="shared" si="178"/>
         <v>3248</v>
       </c>
       <c r="M79">
-        <f t="shared" si="127"/>
+        <f t="shared" si="179"/>
         <v>2928</v>
       </c>
       <c r="N79">
-        <f t="shared" si="128"/>
+        <f t="shared" si="180"/>
         <v>2952</v>
       </c>
       <c r="O79">
-        <f t="shared" si="129"/>
+        <f t="shared" si="181"/>
         <v>2944</v>
       </c>
       <c r="P79" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" si="173"/>
         <v>0B68</v>
       </c>
       <c r="Q79" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="158"/>
         <v>0B60</v>
       </c>
       <c r="R79" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="159"/>
         <v>0CB0</v>
       </c>
       <c r="S79" t="str">
-        <f t="shared" si="130"/>
+        <f t="shared" si="182"/>
         <v>0B70</v>
       </c>
       <c r="T79" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="161"/>
         <v>0B88</v>
       </c>
       <c r="U79" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" si="174"/>
         <v>0B80</v>
       </c>
       <c r="V79" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" si="162"/>
         <v>68</v>
       </c>
       <c r="W79" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" si="163"/>
         <v>60</v>
       </c>
       <c r="X79" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" si="164"/>
         <v>B0</v>
       </c>
       <c r="Y79" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" si="165"/>
         <v>70</v>
       </c>
       <c r="Z79" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" si="166"/>
         <v>88</v>
       </c>
       <c r="AA79" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" si="167"/>
         <v>80</v>
       </c>
       <c r="AB79" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" si="175"/>
         <v>0B</v>
       </c>
       <c r="AC79" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" si="168"/>
         <v>0B</v>
       </c>
       <c r="AD79" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" si="169"/>
         <v>0C</v>
       </c>
       <c r="AE79" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" si="170"/>
         <v>0B</v>
       </c>
       <c r="AF79" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" si="171"/>
         <v>0B</v>
       </c>
       <c r="AG79" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" si="172"/>
         <v>0B</v>
       </c>
     </row>

--- a/Assets/greenberet.xlsx
+++ b/Assets/greenberet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Dropbox/C64/Projects/Green Beret C16/Assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\C64\Projects\Green Beret C16\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB8AA9C-0FCB-4747-A115-DF8695BEC610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EA6F5A-3B8F-4FD0-A172-8CE49C9171C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17840" yWindow="460" windowWidth="23120" windowHeight="20740" xr2:uid="{C5B1AB4D-9D38-4125-AD5D-536286D47960}"/>
+    <workbookView xWindow="2730" yWindow="780" windowWidth="23115" windowHeight="20730" xr2:uid="{C5B1AB4D-9D38-4125-AD5D-536286D47960}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -550,28 +550,28 @@
   <dimension ref="A2:AY79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="Z19" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="C2" sqref="C2"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H28" sqref="H28"/>
+      <selection pane="bottomRight" activeCell="AL58" sqref="AL47:AL58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.5" customWidth="1"/>
-    <col min="4" max="9" width="11.5" customWidth="1"/>
-    <col min="10" max="22" width="9.1640625" customWidth="1"/>
-    <col min="36" max="36" width="19.33203125" customWidth="1"/>
-    <col min="37" max="37" width="4.6640625" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="9" width="11.42578125" customWidth="1"/>
+    <col min="10" max="22" width="9.140625" customWidth="1"/>
+    <col min="36" max="36" width="19.28515625" customWidth="1"/>
+    <col min="37" max="37" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="Y3" t="s">
         <v>15</v>
       </c>
@@ -579,7 +579,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:51" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:51" ht="30" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
         <v>0</v>
       </c>
@@ -719,7 +719,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>0</v>
       </c>
@@ -893,7 +893,7 @@
         <v xml:space="preserve"> .byte $</v>
       </c>
     </row>
-    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>DEC2BIN(B6,8)</f>
         <v>00000001</v>
@@ -1075,7 +1075,7 @@
         <v>, $</v>
       </c>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" ref="A7:A44" si="31">DEC2BIN(B7,8)</f>
         <v>00000010</v>
@@ -1253,7 +1253,7 @@
         <v xml:space="preserve"> .byte $, $ .byte $</v>
       </c>
     </row>
-    <row r="8" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="31"/>
         <v>00000011</v>
@@ -1431,7 +1431,7 @@
         <v xml:space="preserve"> .byte $, $ .byte $ .byte $</v>
       </c>
     </row>
-    <row r="9" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="31"/>
         <v>00000100</v>
@@ -1609,7 +1609,7 @@
         <v xml:space="preserve"> .byte $, $ .byte $ .byte $ .byte $</v>
       </c>
     </row>
-    <row r="10" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="31"/>
         <v>00000101</v>
@@ -1787,7 +1787,7 @@
         <v xml:space="preserve"> .byte $, $ .byte $ .byte $ .byte $ .byte $</v>
       </c>
     </row>
-    <row r="11" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="31"/>
         <v>00000110</v>
@@ -1965,7 +1965,7 @@
         <v xml:space="preserve"> .byte $, $ .byte $ .byte $ .byte $ .byte $ .byte $</v>
       </c>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="31"/>
         <v>00000111</v>
@@ -2143,7 +2143,7 @@
         <v xml:space="preserve"> .byte $, $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $</v>
       </c>
     </row>
-    <row r="13" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="31"/>
         <v>00001000</v>
@@ -2321,7 +2321,7 @@
         <v xml:space="preserve"> .byte $, $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $</v>
       </c>
     </row>
-    <row r="14" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="31"/>
         <v>00001001</v>
@@ -2484,7 +2484,7 @@
         <v xml:space="preserve"> .byte $, $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $</v>
       </c>
     </row>
-    <row r="15" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" si="31"/>
         <v>00001010</v>
@@ -2656,7 +2656,7 @@
         <v xml:space="preserve"> .byte $, $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $</v>
       </c>
     </row>
-    <row r="16" spans="1:51" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="31"/>
         <v>00001011</v>
@@ -2819,7 +2819,7 @@
         <v xml:space="preserve"> .byte $, $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $</v>
       </c>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" si="31"/>
         <v>00001100</v>
@@ -2991,7 +2991,7 @@
         <v xml:space="preserve"> .byte $, $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $</v>
       </c>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" si="31"/>
         <v>00001101</v>
@@ -3154,7 +3154,7 @@
         <v xml:space="preserve"> .byte $, $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $</v>
       </c>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" si="31"/>
         <v>00001110</v>
@@ -3326,7 +3326,7 @@
         <v xml:space="preserve"> .byte $, $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $</v>
       </c>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" si="31"/>
         <v>00001111</v>
@@ -3489,7 +3489,7 @@
         <v xml:space="preserve"> .byte $, $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $</v>
       </c>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" si="31"/>
         <v>00010000</v>
@@ -3667,7 +3667,7 @@
         <v xml:space="preserve"> .byte $, $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $</v>
       </c>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" si="31"/>
         <v>00010001</v>
@@ -3845,7 +3845,7 @@
         <v xml:space="preserve"> .byte $, $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $</v>
       </c>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" si="31"/>
         <v>00010010</v>
@@ -4023,7 +4023,7 @@
         <v xml:space="preserve"> .byte $, $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $</v>
       </c>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" si="31"/>
         <v>00010011</v>
@@ -4201,7 +4201,7 @@
         <v xml:space="preserve"> .byte $, $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $</v>
       </c>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" si="31"/>
         <v>00010100</v>
@@ -4379,7 +4379,7 @@
         <v xml:space="preserve"> .byte $, $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $</v>
       </c>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" si="31"/>
         <v>00010101</v>
@@ -4557,7 +4557,7 @@
         <v xml:space="preserve"> .byte $, $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $</v>
       </c>
     </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" si="31"/>
         <v>00010110</v>
@@ -4735,7 +4735,7 @@
         <v xml:space="preserve"> .byte $, $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $</v>
       </c>
     </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" si="31"/>
         <v>00010111</v>
@@ -4913,7 +4913,7 @@
         <v xml:space="preserve"> .byte $, $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $</v>
       </c>
     </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" si="31"/>
         <v>00011000</v>
@@ -5091,7 +5091,7 @@
         <v xml:space="preserve"> .byte $, $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $</v>
       </c>
     </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" si="31"/>
         <v>00011001</v>
@@ -5254,7 +5254,7 @@
         <v xml:space="preserve"> .byte $, $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $</v>
       </c>
     </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" si="31"/>
         <v>00011010</v>
@@ -5426,7 +5426,7 @@
         <v xml:space="preserve"> .byte $, $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $</v>
       </c>
     </row>
-    <row r="32" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" si="31"/>
         <v>00011011</v>
@@ -5589,7 +5589,7 @@
         <v xml:space="preserve"> .byte $, $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $</v>
       </c>
     </row>
-    <row r="33" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f t="shared" si="31"/>
         <v>00011100</v>
@@ -5761,7 +5761,7 @@
         <v xml:space="preserve"> .byte $, $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $</v>
       </c>
     </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f t="shared" si="31"/>
         <v>00011101</v>
@@ -5924,7 +5924,7 @@
         <v xml:space="preserve"> .byte $, $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $</v>
       </c>
     </row>
-    <row r="35" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f t="shared" si="31"/>
         <v>00011110</v>
@@ -6096,7 +6096,7 @@
         <v xml:space="preserve"> .byte $, $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $</v>
       </c>
     </row>
-    <row r="36" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f t="shared" si="31"/>
         <v>00011111</v>
@@ -6259,7 +6259,7 @@
         <v xml:space="preserve"> .byte $, $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $</v>
       </c>
     </row>
-    <row r="37" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f t="shared" si="31"/>
         <v>00100000</v>
@@ -6437,7 +6437,7 @@
         <v xml:space="preserve"> .byte $, $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $</v>
       </c>
     </row>
-    <row r="38" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f t="shared" si="31"/>
         <v>00100001</v>
@@ -6615,7 +6615,7 @@
         <v xml:space="preserve"> .byte $, $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $</v>
       </c>
     </row>
-    <row r="39" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f t="shared" si="31"/>
         <v>00100010</v>
@@ -6778,7 +6778,7 @@
         <v xml:space="preserve"> .byte $, $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $</v>
       </c>
     </row>
-    <row r="40" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f t="shared" si="31"/>
         <v>00100011</v>
@@ -6941,7 +6941,7 @@
         <v xml:space="preserve"> .byte $, $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $</v>
       </c>
     </row>
-    <row r="41" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f t="shared" si="31"/>
         <v>00100100</v>
@@ -7119,7 +7119,7 @@
         <v xml:space="preserve"> .byte $, $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $</v>
       </c>
     </row>
-    <row r="42" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f t="shared" si="31"/>
         <v>00100101</v>
@@ -7297,7 +7297,7 @@
         <v xml:space="preserve"> .byte $, $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $</v>
       </c>
     </row>
-    <row r="43" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f t="shared" si="31"/>
         <v>00100110</v>
@@ -7460,7 +7460,7 @@
         <v xml:space="preserve"> .byte $, $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $</v>
       </c>
     </row>
-    <row r="44" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f t="shared" si="31"/>
         <v>00100111</v>
@@ -7623,7 +7623,7 @@
         <v xml:space="preserve"> .byte $, $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $</v>
       </c>
     </row>
-    <row r="45" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:50" x14ac:dyDescent="0.25">
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -7683,7 +7683,7 @@
         <v xml:space="preserve"> .byte $, $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $ .byte $</v>
       </c>
     </row>
-    <row r="46" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:50" x14ac:dyDescent="0.25">
       <c r="D46" s="2">
         <v>181</v>
       </c>
@@ -7799,7 +7799,7 @@
         <v>0F</v>
       </c>
     </row>
-    <row r="47" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:50" x14ac:dyDescent="0.25">
       <c r="D47" s="2">
         <v>187</v>
       </c>
@@ -7918,7 +7918,7 @@
         <v>TopLeftCharsLSB: .byte $00, $18, $48, $C8, $00, $18, $48, $C8, $C8, $00, $28, $00, $28, $00, $28, $00, $C8, $78, $A8, $D0, $C8, $78, $A8, $D0, $D0, $00, $70, $00, $80, $00, $90, $00, $D8, $10, $00, $00, $D8, $10</v>
       </c>
     </row>
-    <row r="48" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:50" x14ac:dyDescent="0.25">
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -7933,7 +7933,7 @@
         <v>TopRightCharsLSB: .byte $C8, $20, $50, $78, $C8, $20, $50, $78, $78, $00, $30, $00, $40, $00, $50, $00, $58, $70, $A0, $C8, $58, $70, $A0, $C8, $C8, $00, $68, $00, $78, $00, $88, $00, $E0, $08, $00, $00, $E0, $08</v>
       </c>
     </row>
-    <row r="49" spans="3:38" ht="32" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:38" ht="30" x14ac:dyDescent="0.25">
       <c r="D49" s="1" t="s">
         <v>0</v>
       </c>
@@ -8044,7 +8044,7 @@
         <v>MiddleLeftCharsLSB: .byte $08, $28, $58, $C8, $B0, $98, $98, $C0, $C8, $00, $38, $00, $48, $00, $58, $00, $C8, $88, $B8, $D8, $00, $F8, $B8, $10, $D8, $00, $60, $00, $60, $00, $60, $00, $E8, $20, $00, $00, $90, $A8</v>
       </c>
     </row>
-    <row r="50" spans="3:38" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>6</v>
       </c>
@@ -8170,7 +8170,7 @@
         <v>MiddleRightCharsLSB: .byte $C8, $30, $60, $80, $A8, $A0, $A0, $B8, $80, $00, $00, $00, $00, $00, $00, $00, $60, $80, $B0, $C8, $08, $F0, $B0, $18, $C8, $00, $00, $00, $00, $00, $00, $00, $F0, $18, $00, $00, $98, $A0</v>
       </c>
     </row>
-    <row r="51" spans="3:38" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>6</v>
       </c>
@@ -8296,7 +8296,7 @@
         <v>BottomLeftCharsLSB: .byte $10, $38, $68, $88, $10, $38, $68, $88, $88, $00, $00, $00, $00, $00, $00, $00, $C8, $98, $C8, $E8, $C8, $98, $C8, $E8, $E8, $00, $00, $00, $00, $00, $00, $00, $F8, $30, $00, $00, $F8, $30</v>
       </c>
     </row>
-    <row r="52" spans="3:38" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>6</v>
       </c>
@@ -8422,7 +8422,7 @@
         <v>BottomRightCharsLSB: .byte $C8, $40, $70, $90, $C8, $40, $70, $90, $90, $00, $00, $00, $00, $00, $00, $00, $68, $90, $C0, $E0, $68, $90, $C0, $E0, $E0, $00, $00, $00, $00, $00, $00, $00, $00, $28, $00, $00, $00, $28</v>
       </c>
     </row>
-    <row r="53" spans="3:38" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>6</v>
       </c>
@@ -8548,7 +8548,7 @@
         <v>TopLeftCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A, $0A, $0B, $0B, $0B, $0A, $0B, $0B, $0B, $0B, $0A, $0C, $0A, $0C, $0A, $0C, $0A, $0A, $0B, $0A, $0A, $0A, $0B</v>
       </c>
     </row>
-    <row r="54" spans="3:38" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>7</v>
       </c>
@@ -8674,7 +8674,7 @@
         <v>TopRightCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A, $0B, $0B, $0B, $0A, $0B, $0B, $0B, $0A, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A, $0A, $0B, $0A, $0A, $0A, $0B</v>
       </c>
     </row>
-    <row r="55" spans="3:38" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>7</v>
       </c>
@@ -8800,7 +8800,7 @@
         <v>MiddleLeftCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0C, $0A, $0C, $0A, $0C, $0A, $0A, $0B, $0B, $0B, $0C, $0B, $0B, $0C, $0B, $0A, $0C, $0A, $0C, $0A, $0C, $0A, $0A, $0B, $0A, $0A, $0C, $0C</v>
       </c>
     </row>
-    <row r="56" spans="3:38" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>7</v>
       </c>
@@ -8926,7 +8926,7 @@
         <v>MiddleRightCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0B, $0B, $0B, $0A, $0C, $0B, $0B, $0C, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0B, $0A, $0A, $0C, $0C</v>
       </c>
     </row>
-    <row r="57" spans="3:38" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>7</v>
       </c>
@@ -9052,7 +9052,7 @@
         <v>BottomLeftCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0B, $0B, $0B, $0A, $0B, $0B, $0B, $0B, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0B, $0A, $0A, $0A, $0B</v>
       </c>
     </row>
-    <row r="58" spans="3:38" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>8</v>
       </c>
@@ -9178,7 +9178,7 @@
         <v>BottomRightCharsMSB: .byte $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0B, $0B, $0B, $0B, $0B, $0B, $0B, $0B, $0B, $0A, $0A, $0A, $0A, $0A, $0A, $0A, $0B, $0B, $0A, $0A, $0B, $0B</v>
       </c>
     </row>
-    <row r="59" spans="3:38" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>8</v>
       </c>
@@ -9297,7 +9297,7 @@
         <v>0A</v>
       </c>
     </row>
-    <row r="60" spans="3:38" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>8</v>
       </c>
@@ -9416,7 +9416,7 @@
         <v>0A</v>
       </c>
     </row>
-    <row r="61" spans="3:38" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>9</v>
       </c>
@@ -9535,7 +9535,7 @@
         <v>0B</v>
       </c>
     </row>
-    <row r="62" spans="3:38" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>9</v>
       </c>
@@ -9654,7 +9654,7 @@
         <v>0B</v>
       </c>
     </row>
-    <row r="63" spans="3:38" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>9</v>
       </c>
@@ -9773,7 +9773,7 @@
         <v>0D</v>
       </c>
     </row>
-    <row r="64" spans="3:38" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:38" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>9</v>
       </c>
@@ -9892,7 +9892,7 @@
         <v>0D</v>
       </c>
     </row>
-    <row r="65" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>10</v>
       </c>
@@ -10011,7 +10011,7 @@
         <v>0B</v>
       </c>
     </row>
-    <row r="66" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>10</v>
       </c>
@@ -10130,7 +10130,7 @@
         <v>0B</v>
       </c>
     </row>
-    <row r="67" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>10</v>
       </c>
@@ -10249,7 +10249,7 @@
         <v>0D</v>
       </c>
     </row>
-    <row r="68" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>10</v>
       </c>
@@ -10368,7 +10368,7 @@
         <v>0D</v>
       </c>
     </row>
-    <row r="69" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>11</v>
       </c>
@@ -10487,7 +10487,7 @@
         <v>0B</v>
       </c>
     </row>
-    <row r="70" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>11</v>
       </c>
@@ -10606,7 +10606,7 @@
         <v>0B</v>
       </c>
     </row>
-    <row r="71" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>11</v>
       </c>
@@ -10725,7 +10725,7 @@
         <v>0B</v>
       </c>
     </row>
-    <row r="72" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
         <v>11</v>
       </c>
@@ -10844,7 +10844,7 @@
         <v>0C</v>
       </c>
     </row>
-    <row r="73" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>12</v>
       </c>
@@ -10963,7 +10963,7 @@
         <v>0B</v>
       </c>
     </row>
-    <row r="74" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>12</v>
       </c>
@@ -11082,7 +11082,7 @@
         <v>0B</v>
       </c>
     </row>
-    <row r="75" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>12</v>
       </c>
@@ -11201,7 +11201,7 @@
         <v>0B</v>
       </c>
     </row>
-    <row r="76" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>12</v>
       </c>
@@ -11320,7 +11320,7 @@
         <v>0C</v>
       </c>
     </row>
-    <row r="77" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>13</v>
       </c>
@@ -11439,7 +11439,7 @@
         <v>0B</v>
       </c>
     </row>
-    <row r="78" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>13</v>
       </c>
@@ -11558,7 +11558,7 @@
         <v>0C</v>
       </c>
     </row>
-    <row r="79" spans="3:34" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
         <v>13</v>
       </c>
